--- a/FQ 9.1-001-01 Indicadores da Qualidade 2023.xlsx
+++ b/FQ 9.1-001-01 Indicadores da Qualidade 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\5 - ELOHIM\Avaliação Fornecedor\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sgq\Desktop\Projetos\Indicadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0DC9D8-AECA-4DE6-978C-267C59A2E778}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A56139D-D2CB-4074-806D-BB7C792CD26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAQ - Prazo e Devolução" sheetId="9" r:id="rId1"/>
@@ -690,7 +690,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -836,12 +836,6 @@
     <xf numFmtId="9" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -883,6 +877,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1721,10 +1718,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2894,10 +2891,10 @@
                   <c:v>0.96875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.96571428571428575</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.98222222222222233</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2909,7 +2906,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.97650602409638554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4072,8 +4069,8 @@
   </sheetPr>
   <dimension ref="A1:IV122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4092,554 +4089,554 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
     </row>
     <row r="2" spans="1:256" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="68"/>
-      <c r="AS2" s="68"/>
-      <c r="AT2" s="68"/>
-      <c r="AU2" s="68"/>
-      <c r="AV2" s="68"/>
-      <c r="AW2" s="68"/>
-      <c r="AX2" s="68"/>
-      <c r="AY2" s="68"/>
-      <c r="AZ2" s="68"/>
-      <c r="BA2" s="68"/>
-      <c r="BB2" s="68"/>
-      <c r="BC2" s="68"/>
-      <c r="BD2" s="68"/>
-      <c r="BE2" s="68"/>
-      <c r="BF2" s="68"/>
-      <c r="BG2" s="68"/>
-      <c r="BH2" s="68"/>
-      <c r="BI2" s="68"/>
-      <c r="BJ2" s="68"/>
-      <c r="BK2" s="68"/>
-      <c r="BL2" s="68"/>
-      <c r="BM2" s="68"/>
-      <c r="BN2" s="68"/>
-      <c r="BO2" s="68"/>
-      <c r="BP2" s="68"/>
-      <c r="BQ2" s="68"/>
-      <c r="BR2" s="68"/>
-      <c r="BS2" s="68"/>
-      <c r="BT2" s="68"/>
-      <c r="BU2" s="68"/>
-      <c r="BV2" s="68"/>
-      <c r="BW2" s="68"/>
-      <c r="BX2" s="68"/>
-      <c r="BY2" s="68"/>
-      <c r="BZ2" s="68"/>
-      <c r="CA2" s="68"/>
-      <c r="CB2" s="68"/>
-      <c r="CC2" s="68"/>
-      <c r="CD2" s="68"/>
-      <c r="CE2" s="68"/>
-      <c r="CF2" s="68"/>
-      <c r="CG2" s="68"/>
-      <c r="CH2" s="68"/>
-      <c r="CI2" s="68"/>
-      <c r="CJ2" s="68"/>
-      <c r="CK2" s="68"/>
-      <c r="CL2" s="68"/>
-      <c r="CM2" s="68"/>
-      <c r="CN2" s="68"/>
-      <c r="CO2" s="68"/>
-      <c r="CP2" s="68"/>
-      <c r="CQ2" s="68"/>
-      <c r="CR2" s="68"/>
-      <c r="CS2" s="68"/>
-      <c r="CT2" s="68"/>
-      <c r="CU2" s="68"/>
-      <c r="CV2" s="68"/>
-      <c r="CW2" s="68"/>
-      <c r="CX2" s="68"/>
-      <c r="CY2" s="68"/>
-      <c r="CZ2" s="68"/>
-      <c r="DA2" s="68"/>
-      <c r="DB2" s="68"/>
-      <c r="DC2" s="68"/>
-      <c r="DD2" s="68"/>
-      <c r="DE2" s="68"/>
-      <c r="DF2" s="68"/>
-      <c r="DG2" s="68"/>
-      <c r="DH2" s="68"/>
-      <c r="DI2" s="68"/>
-      <c r="DJ2" s="68"/>
-      <c r="DK2" s="68"/>
-      <c r="DL2" s="68"/>
-      <c r="DM2" s="68"/>
-      <c r="DN2" s="68"/>
-      <c r="DO2" s="68"/>
-      <c r="DP2" s="68"/>
-      <c r="DQ2" s="68"/>
-      <c r="DR2" s="68"/>
-      <c r="DS2" s="68"/>
-      <c r="DT2" s="68"/>
-      <c r="DU2" s="68"/>
-      <c r="DV2" s="68"/>
-      <c r="DW2" s="68"/>
-      <c r="DX2" s="68"/>
-      <c r="DY2" s="68"/>
-      <c r="DZ2" s="68"/>
-      <c r="EA2" s="68"/>
-      <c r="EB2" s="68"/>
-      <c r="EC2" s="68"/>
-      <c r="ED2" s="68"/>
-      <c r="EE2" s="68"/>
-      <c r="EF2" s="68"/>
-      <c r="EG2" s="68"/>
-      <c r="EH2" s="68"/>
-      <c r="EI2" s="68"/>
-      <c r="EJ2" s="68"/>
-      <c r="EK2" s="68"/>
-      <c r="EL2" s="68"/>
-      <c r="EM2" s="68"/>
-      <c r="EN2" s="68"/>
-      <c r="EO2" s="68"/>
-      <c r="EP2" s="68"/>
-      <c r="EQ2" s="68"/>
-      <c r="ER2" s="68"/>
-      <c r="ES2" s="68"/>
-      <c r="ET2" s="68"/>
-      <c r="EU2" s="68"/>
-      <c r="EV2" s="68"/>
-      <c r="EW2" s="68"/>
-      <c r="EX2" s="68"/>
-      <c r="EY2" s="68"/>
-      <c r="EZ2" s="68"/>
-      <c r="FA2" s="68"/>
-      <c r="FB2" s="68"/>
-      <c r="FC2" s="68"/>
-      <c r="FD2" s="68"/>
-      <c r="FE2" s="68"/>
-      <c r="FF2" s="68"/>
-      <c r="FG2" s="68"/>
-      <c r="FH2" s="68"/>
-      <c r="FI2" s="68"/>
-      <c r="FJ2" s="68"/>
-      <c r="FK2" s="68"/>
-      <c r="FL2" s="68"/>
-      <c r="FM2" s="68"/>
-      <c r="FN2" s="68"/>
-      <c r="FO2" s="68"/>
-      <c r="FP2" s="68"/>
-      <c r="FQ2" s="68"/>
-      <c r="FR2" s="68"/>
-      <c r="FS2" s="68"/>
-      <c r="FT2" s="68"/>
-      <c r="FU2" s="68"/>
-      <c r="FV2" s="68"/>
-      <c r="FW2" s="68"/>
-      <c r="FX2" s="68"/>
-      <c r="FY2" s="68"/>
-      <c r="FZ2" s="68"/>
-      <c r="GA2" s="68"/>
-      <c r="GB2" s="68"/>
-      <c r="GC2" s="68"/>
-      <c r="GD2" s="68"/>
-      <c r="GE2" s="68"/>
-      <c r="GF2" s="68"/>
-      <c r="GG2" s="68"/>
-      <c r="GH2" s="68"/>
-      <c r="GI2" s="68"/>
-      <c r="GJ2" s="68"/>
-      <c r="GK2" s="68"/>
-      <c r="GL2" s="68"/>
-      <c r="GM2" s="68"/>
-      <c r="GN2" s="68"/>
-      <c r="GO2" s="68"/>
-      <c r="GP2" s="68"/>
-      <c r="GQ2" s="68"/>
-      <c r="GR2" s="68"/>
-      <c r="GS2" s="68"/>
-      <c r="GT2" s="68"/>
-      <c r="GU2" s="68"/>
-      <c r="GV2" s="68"/>
-      <c r="GW2" s="68"/>
-      <c r="GX2" s="68"/>
-      <c r="GY2" s="68"/>
-      <c r="GZ2" s="68"/>
-      <c r="HA2" s="68"/>
-      <c r="HB2" s="68"/>
-      <c r="HC2" s="68"/>
-      <c r="HD2" s="68"/>
-      <c r="HE2" s="68"/>
-      <c r="HF2" s="68"/>
-      <c r="HG2" s="68"/>
-      <c r="HH2" s="68"/>
-      <c r="HI2" s="68"/>
-      <c r="HJ2" s="68"/>
-      <c r="HK2" s="68"/>
-      <c r="HL2" s="68"/>
-      <c r="HM2" s="68"/>
-      <c r="HN2" s="68"/>
-      <c r="HO2" s="68"/>
-      <c r="HP2" s="68"/>
-      <c r="HQ2" s="68"/>
-      <c r="HR2" s="68"/>
-      <c r="HS2" s="68"/>
-      <c r="HT2" s="68"/>
-      <c r="HU2" s="68"/>
-      <c r="HV2" s="68"/>
-      <c r="HW2" s="68"/>
-      <c r="HX2" s="68"/>
-      <c r="HY2" s="68"/>
-      <c r="HZ2" s="68"/>
-      <c r="IA2" s="68"/>
-      <c r="IB2" s="68"/>
-      <c r="IC2" s="68"/>
-      <c r="ID2" s="68"/>
-      <c r="IE2" s="68"/>
-      <c r="IF2" s="68"/>
-      <c r="IG2" s="68"/>
-      <c r="IH2" s="68"/>
-      <c r="II2" s="68"/>
-      <c r="IJ2" s="68"/>
-      <c r="IK2" s="68"/>
-      <c r="IL2" s="68"/>
-      <c r="IM2" s="68"/>
-      <c r="IN2" s="68"/>
-      <c r="IO2" s="68"/>
-      <c r="IP2" s="68"/>
-      <c r="IQ2" s="68"/>
-      <c r="IR2" s="68"/>
-      <c r="IS2" s="68"/>
-      <c r="IT2" s="68"/>
-      <c r="IU2" s="68"/>
-      <c r="IV2" s="68"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="66"/>
+      <c r="AY2" s="66"/>
+      <c r="AZ2" s="66"/>
+      <c r="BA2" s="66"/>
+      <c r="BB2" s="66"/>
+      <c r="BC2" s="66"/>
+      <c r="BD2" s="66"/>
+      <c r="BE2" s="66"/>
+      <c r="BF2" s="66"/>
+      <c r="BG2" s="66"/>
+      <c r="BH2" s="66"/>
+      <c r="BI2" s="66"/>
+      <c r="BJ2" s="66"/>
+      <c r="BK2" s="66"/>
+      <c r="BL2" s="66"/>
+      <c r="BM2" s="66"/>
+      <c r="BN2" s="66"/>
+      <c r="BO2" s="66"/>
+      <c r="BP2" s="66"/>
+      <c r="BQ2" s="66"/>
+      <c r="BR2" s="66"/>
+      <c r="BS2" s="66"/>
+      <c r="BT2" s="66"/>
+      <c r="BU2" s="66"/>
+      <c r="BV2" s="66"/>
+      <c r="BW2" s="66"/>
+      <c r="BX2" s="66"/>
+      <c r="BY2" s="66"/>
+      <c r="BZ2" s="66"/>
+      <c r="CA2" s="66"/>
+      <c r="CB2" s="66"/>
+      <c r="CC2" s="66"/>
+      <c r="CD2" s="66"/>
+      <c r="CE2" s="66"/>
+      <c r="CF2" s="66"/>
+      <c r="CG2" s="66"/>
+      <c r="CH2" s="66"/>
+      <c r="CI2" s="66"/>
+      <c r="CJ2" s="66"/>
+      <c r="CK2" s="66"/>
+      <c r="CL2" s="66"/>
+      <c r="CM2" s="66"/>
+      <c r="CN2" s="66"/>
+      <c r="CO2" s="66"/>
+      <c r="CP2" s="66"/>
+      <c r="CQ2" s="66"/>
+      <c r="CR2" s="66"/>
+      <c r="CS2" s="66"/>
+      <c r="CT2" s="66"/>
+      <c r="CU2" s="66"/>
+      <c r="CV2" s="66"/>
+      <c r="CW2" s="66"/>
+      <c r="CX2" s="66"/>
+      <c r="CY2" s="66"/>
+      <c r="CZ2" s="66"/>
+      <c r="DA2" s="66"/>
+      <c r="DB2" s="66"/>
+      <c r="DC2" s="66"/>
+      <c r="DD2" s="66"/>
+      <c r="DE2" s="66"/>
+      <c r="DF2" s="66"/>
+      <c r="DG2" s="66"/>
+      <c r="DH2" s="66"/>
+      <c r="DI2" s="66"/>
+      <c r="DJ2" s="66"/>
+      <c r="DK2" s="66"/>
+      <c r="DL2" s="66"/>
+      <c r="DM2" s="66"/>
+      <c r="DN2" s="66"/>
+      <c r="DO2" s="66"/>
+      <c r="DP2" s="66"/>
+      <c r="DQ2" s="66"/>
+      <c r="DR2" s="66"/>
+      <c r="DS2" s="66"/>
+      <c r="DT2" s="66"/>
+      <c r="DU2" s="66"/>
+      <c r="DV2" s="66"/>
+      <c r="DW2" s="66"/>
+      <c r="DX2" s="66"/>
+      <c r="DY2" s="66"/>
+      <c r="DZ2" s="66"/>
+      <c r="EA2" s="66"/>
+      <c r="EB2" s="66"/>
+      <c r="EC2" s="66"/>
+      <c r="ED2" s="66"/>
+      <c r="EE2" s="66"/>
+      <c r="EF2" s="66"/>
+      <c r="EG2" s="66"/>
+      <c r="EH2" s="66"/>
+      <c r="EI2" s="66"/>
+      <c r="EJ2" s="66"/>
+      <c r="EK2" s="66"/>
+      <c r="EL2" s="66"/>
+      <c r="EM2" s="66"/>
+      <c r="EN2" s="66"/>
+      <c r="EO2" s="66"/>
+      <c r="EP2" s="66"/>
+      <c r="EQ2" s="66"/>
+      <c r="ER2" s="66"/>
+      <c r="ES2" s="66"/>
+      <c r="ET2" s="66"/>
+      <c r="EU2" s="66"/>
+      <c r="EV2" s="66"/>
+      <c r="EW2" s="66"/>
+      <c r="EX2" s="66"/>
+      <c r="EY2" s="66"/>
+      <c r="EZ2" s="66"/>
+      <c r="FA2" s="66"/>
+      <c r="FB2" s="66"/>
+      <c r="FC2" s="66"/>
+      <c r="FD2" s="66"/>
+      <c r="FE2" s="66"/>
+      <c r="FF2" s="66"/>
+      <c r="FG2" s="66"/>
+      <c r="FH2" s="66"/>
+      <c r="FI2" s="66"/>
+      <c r="FJ2" s="66"/>
+      <c r="FK2" s="66"/>
+      <c r="FL2" s="66"/>
+      <c r="FM2" s="66"/>
+      <c r="FN2" s="66"/>
+      <c r="FO2" s="66"/>
+      <c r="FP2" s="66"/>
+      <c r="FQ2" s="66"/>
+      <c r="FR2" s="66"/>
+      <c r="FS2" s="66"/>
+      <c r="FT2" s="66"/>
+      <c r="FU2" s="66"/>
+      <c r="FV2" s="66"/>
+      <c r="FW2" s="66"/>
+      <c r="FX2" s="66"/>
+      <c r="FY2" s="66"/>
+      <c r="FZ2" s="66"/>
+      <c r="GA2" s="66"/>
+      <c r="GB2" s="66"/>
+      <c r="GC2" s="66"/>
+      <c r="GD2" s="66"/>
+      <c r="GE2" s="66"/>
+      <c r="GF2" s="66"/>
+      <c r="GG2" s="66"/>
+      <c r="GH2" s="66"/>
+      <c r="GI2" s="66"/>
+      <c r="GJ2" s="66"/>
+      <c r="GK2" s="66"/>
+      <c r="GL2" s="66"/>
+      <c r="GM2" s="66"/>
+      <c r="GN2" s="66"/>
+      <c r="GO2" s="66"/>
+      <c r="GP2" s="66"/>
+      <c r="GQ2" s="66"/>
+      <c r="GR2" s="66"/>
+      <c r="GS2" s="66"/>
+      <c r="GT2" s="66"/>
+      <c r="GU2" s="66"/>
+      <c r="GV2" s="66"/>
+      <c r="GW2" s="66"/>
+      <c r="GX2" s="66"/>
+      <c r="GY2" s="66"/>
+      <c r="GZ2" s="66"/>
+      <c r="HA2" s="66"/>
+      <c r="HB2" s="66"/>
+      <c r="HC2" s="66"/>
+      <c r="HD2" s="66"/>
+      <c r="HE2" s="66"/>
+      <c r="HF2" s="66"/>
+      <c r="HG2" s="66"/>
+      <c r="HH2" s="66"/>
+      <c r="HI2" s="66"/>
+      <c r="HJ2" s="66"/>
+      <c r="HK2" s="66"/>
+      <c r="HL2" s="66"/>
+      <c r="HM2" s="66"/>
+      <c r="HN2" s="66"/>
+      <c r="HO2" s="66"/>
+      <c r="HP2" s="66"/>
+      <c r="HQ2" s="66"/>
+      <c r="HR2" s="66"/>
+      <c r="HS2" s="66"/>
+      <c r="HT2" s="66"/>
+      <c r="HU2" s="66"/>
+      <c r="HV2" s="66"/>
+      <c r="HW2" s="66"/>
+      <c r="HX2" s="66"/>
+      <c r="HY2" s="66"/>
+      <c r="HZ2" s="66"/>
+      <c r="IA2" s="66"/>
+      <c r="IB2" s="66"/>
+      <c r="IC2" s="66"/>
+      <c r="ID2" s="66"/>
+      <c r="IE2" s="66"/>
+      <c r="IF2" s="66"/>
+      <c r="IG2" s="66"/>
+      <c r="IH2" s="66"/>
+      <c r="II2" s="66"/>
+      <c r="IJ2" s="66"/>
+      <c r="IK2" s="66"/>
+      <c r="IL2" s="66"/>
+      <c r="IM2" s="66"/>
+      <c r="IN2" s="66"/>
+      <c r="IO2" s="66"/>
+      <c r="IP2" s="66"/>
+      <c r="IQ2" s="66"/>
+      <c r="IR2" s="66"/>
+      <c r="IS2" s="66"/>
+      <c r="IT2" s="66"/>
+      <c r="IU2" s="66"/>
+      <c r="IV2" s="66"/>
     </row>
     <row r="3" spans="1:256" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
     </row>
     <row r="4" spans="1:256" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="68"/>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="68"/>
-      <c r="AF4" s="68"/>
-      <c r="AG4" s="68"/>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="68"/>
-      <c r="AK4" s="68"/>
-      <c r="AL4" s="68"/>
-      <c r="AM4" s="68"/>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="68"/>
-      <c r="AP4" s="68"/>
-      <c r="AQ4" s="68"/>
-      <c r="AR4" s="68"/>
-      <c r="AS4" s="68"/>
-      <c r="AT4" s="68"/>
-      <c r="AU4" s="68"/>
-      <c r="AV4" s="68"/>
-      <c r="AW4" s="68"/>
-      <c r="AX4" s="68"/>
-      <c r="AY4" s="68"/>
-      <c r="AZ4" s="68"/>
-      <c r="BA4" s="68"/>
-      <c r="BB4" s="68"/>
-      <c r="BC4" s="68"/>
-      <c r="BD4" s="68"/>
-      <c r="BE4" s="68"/>
-      <c r="BF4" s="68"/>
-      <c r="BG4" s="68"/>
-      <c r="BH4" s="68"/>
-      <c r="BI4" s="68"/>
-      <c r="BJ4" s="68"/>
-      <c r="BK4" s="68"/>
-      <c r="BL4" s="68"/>
-      <c r="BM4" s="68"/>
-      <c r="BN4" s="68"/>
-      <c r="BO4" s="68"/>
-      <c r="BP4" s="68"/>
-      <c r="BQ4" s="68"/>
-      <c r="BR4" s="68"/>
-      <c r="BS4" s="68"/>
-      <c r="BT4" s="68"/>
-      <c r="BU4" s="68"/>
-      <c r="BV4" s="68"/>
-      <c r="BW4" s="68"/>
-      <c r="BX4" s="68"/>
-      <c r="BY4" s="68"/>
-      <c r="BZ4" s="68"/>
-      <c r="CA4" s="68"/>
-      <c r="CB4" s="68"/>
-      <c r="CC4" s="68"/>
-      <c r="CD4" s="68"/>
-      <c r="CE4" s="68"/>
-      <c r="CF4" s="68"/>
-      <c r="CG4" s="68"/>
-      <c r="CH4" s="68"/>
-      <c r="CI4" s="68"/>
-      <c r="CJ4" s="68"/>
-      <c r="CK4" s="68"/>
-      <c r="CL4" s="68"/>
-      <c r="CM4" s="68"/>
-      <c r="CN4" s="68"/>
-      <c r="CO4" s="68"/>
-      <c r="CP4" s="68"/>
-      <c r="CQ4" s="68"/>
-      <c r="CR4" s="68"/>
-      <c r="CS4" s="68"/>
-      <c r="CT4" s="68"/>
-      <c r="CU4" s="68"/>
-      <c r="CV4" s="68"/>
-      <c r="CW4" s="68"/>
-      <c r="CX4" s="68"/>
-      <c r="CY4" s="68"/>
-      <c r="CZ4" s="68"/>
-      <c r="DA4" s="68"/>
-      <c r="DB4" s="68"/>
-      <c r="DC4" s="68"/>
-      <c r="DD4" s="68"/>
-      <c r="DE4" s="68"/>
-      <c r="DF4" s="68"/>
-      <c r="DG4" s="68"/>
-      <c r="DH4" s="68"/>
-      <c r="DI4" s="68"/>
-      <c r="DJ4" s="68"/>
-      <c r="DK4" s="68"/>
-      <c r="DL4" s="68"/>
-      <c r="DM4" s="68"/>
-      <c r="DN4" s="68"/>
-      <c r="DO4" s="68"/>
-      <c r="DP4" s="68"/>
-      <c r="DQ4" s="68"/>
-      <c r="DR4" s="68"/>
-      <c r="DS4" s="68"/>
-      <c r="DT4" s="68"/>
-      <c r="DU4" s="68"/>
-      <c r="DV4" s="68"/>
-      <c r="DW4" s="68"/>
-      <c r="DX4" s="68"/>
-      <c r="DY4" s="68"/>
-      <c r="DZ4" s="68"/>
-      <c r="EA4" s="68"/>
-      <c r="EB4" s="68"/>
-      <c r="EC4" s="68"/>
-      <c r="ED4" s="68"/>
-      <c r="EE4" s="68"/>
-      <c r="EF4" s="68"/>
-      <c r="EG4" s="68"/>
-      <c r="EH4" s="68"/>
-      <c r="EI4" s="68"/>
-      <c r="EJ4" s="68"/>
-      <c r="EK4" s="68"/>
-      <c r="EL4" s="68"/>
-      <c r="EM4" s="68"/>
-      <c r="EN4" s="68"/>
-      <c r="EO4" s="68"/>
-      <c r="EP4" s="68"/>
-      <c r="EQ4" s="68"/>
-      <c r="ER4" s="68"/>
-      <c r="ES4" s="68"/>
-      <c r="ET4" s="68"/>
-      <c r="EU4" s="68"/>
-      <c r="EV4" s="68"/>
-      <c r="EW4" s="68"/>
-      <c r="EX4" s="68"/>
-      <c r="EY4" s="68"/>
-      <c r="EZ4" s="68"/>
-      <c r="FA4" s="68"/>
-      <c r="FB4" s="68"/>
-      <c r="FC4" s="68"/>
-      <c r="FD4" s="68"/>
-      <c r="FE4" s="68"/>
-      <c r="FF4" s="68"/>
-      <c r="FG4" s="68"/>
-      <c r="FH4" s="68"/>
-      <c r="FI4" s="68"/>
-      <c r="FJ4" s="68"/>
-      <c r="FK4" s="68"/>
-      <c r="FL4" s="68"/>
-      <c r="FM4" s="68"/>
-      <c r="FN4" s="68"/>
-      <c r="FO4" s="68"/>
-      <c r="FP4" s="68"/>
-      <c r="FQ4" s="68"/>
-      <c r="FR4" s="68"/>
-      <c r="FS4" s="68"/>
-      <c r="FT4" s="68"/>
-      <c r="FU4" s="68"/>
-      <c r="FV4" s="68"/>
-      <c r="FW4" s="68"/>
-      <c r="FX4" s="68"/>
-      <c r="FY4" s="68"/>
-      <c r="FZ4" s="68"/>
-      <c r="GA4" s="68"/>
-      <c r="GB4" s="68"/>
-      <c r="GC4" s="68"/>
-      <c r="GD4" s="68"/>
-      <c r="GE4" s="68"/>
-      <c r="GF4" s="68"/>
-      <c r="GG4" s="68"/>
-      <c r="GH4" s="68"/>
-      <c r="GI4" s="68"/>
-      <c r="GJ4" s="68"/>
-      <c r="GK4" s="68"/>
-      <c r="GL4" s="68"/>
-      <c r="GM4" s="68"/>
-      <c r="GN4" s="68"/>
-      <c r="GO4" s="68"/>
-      <c r="GP4" s="68"/>
-      <c r="GQ4" s="68"/>
-      <c r="GR4" s="68"/>
-      <c r="GS4" s="68"/>
-      <c r="GT4" s="68"/>
-      <c r="GU4" s="68"/>
-      <c r="GV4" s="68"/>
-      <c r="GW4" s="68"/>
-      <c r="GX4" s="68"/>
-      <c r="GY4" s="68"/>
-      <c r="GZ4" s="68"/>
-      <c r="HA4" s="68"/>
-      <c r="HB4" s="68"/>
-      <c r="HC4" s="68"/>
-      <c r="HD4" s="68"/>
-      <c r="HE4" s="68"/>
-      <c r="HF4" s="68"/>
-      <c r="HG4" s="68"/>
-      <c r="HH4" s="68"/>
-      <c r="HI4" s="68"/>
-      <c r="HJ4" s="68"/>
-      <c r="HK4" s="68"/>
-      <c r="HL4" s="68"/>
-      <c r="HM4" s="68"/>
-      <c r="HN4" s="68"/>
-      <c r="HO4" s="68"/>
-      <c r="HP4" s="68"/>
-      <c r="HQ4" s="68"/>
-      <c r="HR4" s="68"/>
-      <c r="HS4" s="68"/>
-      <c r="HT4" s="68"/>
-      <c r="HU4" s="68"/>
-      <c r="HV4" s="68"/>
-      <c r="HW4" s="68"/>
-      <c r="HX4" s="68"/>
-      <c r="HY4" s="68"/>
-      <c r="HZ4" s="68"/>
-      <c r="IA4" s="68"/>
-      <c r="IB4" s="68"/>
-      <c r="IC4" s="68"/>
-      <c r="ID4" s="68"/>
-      <c r="IE4" s="68"/>
-      <c r="IF4" s="68"/>
-      <c r="IG4" s="68"/>
-      <c r="IH4" s="68"/>
-      <c r="II4" s="68"/>
-      <c r="IJ4" s="68"/>
-      <c r="IK4" s="68"/>
-      <c r="IL4" s="68"/>
-      <c r="IM4" s="68"/>
-      <c r="IN4" s="68"/>
-      <c r="IO4" s="68"/>
-      <c r="IP4" s="68"/>
-      <c r="IQ4" s="68"/>
-      <c r="IR4" s="68"/>
-      <c r="IS4" s="68"/>
-      <c r="IT4" s="68"/>
-      <c r="IU4" s="68"/>
-      <c r="IV4" s="68"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="66"/>
+      <c r="AM4" s="66"/>
+      <c r="AN4" s="66"/>
+      <c r="AO4" s="66"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="66"/>
+      <c r="AR4" s="66"/>
+      <c r="AS4" s="66"/>
+      <c r="AT4" s="66"/>
+      <c r="AU4" s="66"/>
+      <c r="AV4" s="66"/>
+      <c r="AW4" s="66"/>
+      <c r="AX4" s="66"/>
+      <c r="AY4" s="66"/>
+      <c r="AZ4" s="66"/>
+      <c r="BA4" s="66"/>
+      <c r="BB4" s="66"/>
+      <c r="BC4" s="66"/>
+      <c r="BD4" s="66"/>
+      <c r="BE4" s="66"/>
+      <c r="BF4" s="66"/>
+      <c r="BG4" s="66"/>
+      <c r="BH4" s="66"/>
+      <c r="BI4" s="66"/>
+      <c r="BJ4" s="66"/>
+      <c r="BK4" s="66"/>
+      <c r="BL4" s="66"/>
+      <c r="BM4" s="66"/>
+      <c r="BN4" s="66"/>
+      <c r="BO4" s="66"/>
+      <c r="BP4" s="66"/>
+      <c r="BQ4" s="66"/>
+      <c r="BR4" s="66"/>
+      <c r="BS4" s="66"/>
+      <c r="BT4" s="66"/>
+      <c r="BU4" s="66"/>
+      <c r="BV4" s="66"/>
+      <c r="BW4" s="66"/>
+      <c r="BX4" s="66"/>
+      <c r="BY4" s="66"/>
+      <c r="BZ4" s="66"/>
+      <c r="CA4" s="66"/>
+      <c r="CB4" s="66"/>
+      <c r="CC4" s="66"/>
+      <c r="CD4" s="66"/>
+      <c r="CE4" s="66"/>
+      <c r="CF4" s="66"/>
+      <c r="CG4" s="66"/>
+      <c r="CH4" s="66"/>
+      <c r="CI4" s="66"/>
+      <c r="CJ4" s="66"/>
+      <c r="CK4" s="66"/>
+      <c r="CL4" s="66"/>
+      <c r="CM4" s="66"/>
+      <c r="CN4" s="66"/>
+      <c r="CO4" s="66"/>
+      <c r="CP4" s="66"/>
+      <c r="CQ4" s="66"/>
+      <c r="CR4" s="66"/>
+      <c r="CS4" s="66"/>
+      <c r="CT4" s="66"/>
+      <c r="CU4" s="66"/>
+      <c r="CV4" s="66"/>
+      <c r="CW4" s="66"/>
+      <c r="CX4" s="66"/>
+      <c r="CY4" s="66"/>
+      <c r="CZ4" s="66"/>
+      <c r="DA4" s="66"/>
+      <c r="DB4" s="66"/>
+      <c r="DC4" s="66"/>
+      <c r="DD4" s="66"/>
+      <c r="DE4" s="66"/>
+      <c r="DF4" s="66"/>
+      <c r="DG4" s="66"/>
+      <c r="DH4" s="66"/>
+      <c r="DI4" s="66"/>
+      <c r="DJ4" s="66"/>
+      <c r="DK4" s="66"/>
+      <c r="DL4" s="66"/>
+      <c r="DM4" s="66"/>
+      <c r="DN4" s="66"/>
+      <c r="DO4" s="66"/>
+      <c r="DP4" s="66"/>
+      <c r="DQ4" s="66"/>
+      <c r="DR4" s="66"/>
+      <c r="DS4" s="66"/>
+      <c r="DT4" s="66"/>
+      <c r="DU4" s="66"/>
+      <c r="DV4" s="66"/>
+      <c r="DW4" s="66"/>
+      <c r="DX4" s="66"/>
+      <c r="DY4" s="66"/>
+      <c r="DZ4" s="66"/>
+      <c r="EA4" s="66"/>
+      <c r="EB4" s="66"/>
+      <c r="EC4" s="66"/>
+      <c r="ED4" s="66"/>
+      <c r="EE4" s="66"/>
+      <c r="EF4" s="66"/>
+      <c r="EG4" s="66"/>
+      <c r="EH4" s="66"/>
+      <c r="EI4" s="66"/>
+      <c r="EJ4" s="66"/>
+      <c r="EK4" s="66"/>
+      <c r="EL4" s="66"/>
+      <c r="EM4" s="66"/>
+      <c r="EN4" s="66"/>
+      <c r="EO4" s="66"/>
+      <c r="EP4" s="66"/>
+      <c r="EQ4" s="66"/>
+      <c r="ER4" s="66"/>
+      <c r="ES4" s="66"/>
+      <c r="ET4" s="66"/>
+      <c r="EU4" s="66"/>
+      <c r="EV4" s="66"/>
+      <c r="EW4" s="66"/>
+      <c r="EX4" s="66"/>
+      <c r="EY4" s="66"/>
+      <c r="EZ4" s="66"/>
+      <c r="FA4" s="66"/>
+      <c r="FB4" s="66"/>
+      <c r="FC4" s="66"/>
+      <c r="FD4" s="66"/>
+      <c r="FE4" s="66"/>
+      <c r="FF4" s="66"/>
+      <c r="FG4" s="66"/>
+      <c r="FH4" s="66"/>
+      <c r="FI4" s="66"/>
+      <c r="FJ4" s="66"/>
+      <c r="FK4" s="66"/>
+      <c r="FL4" s="66"/>
+      <c r="FM4" s="66"/>
+      <c r="FN4" s="66"/>
+      <c r="FO4" s="66"/>
+      <c r="FP4" s="66"/>
+      <c r="FQ4" s="66"/>
+      <c r="FR4" s="66"/>
+      <c r="FS4" s="66"/>
+      <c r="FT4" s="66"/>
+      <c r="FU4" s="66"/>
+      <c r="FV4" s="66"/>
+      <c r="FW4" s="66"/>
+      <c r="FX4" s="66"/>
+      <c r="FY4" s="66"/>
+      <c r="FZ4" s="66"/>
+      <c r="GA4" s="66"/>
+      <c r="GB4" s="66"/>
+      <c r="GC4" s="66"/>
+      <c r="GD4" s="66"/>
+      <c r="GE4" s="66"/>
+      <c r="GF4" s="66"/>
+      <c r="GG4" s="66"/>
+      <c r="GH4" s="66"/>
+      <c r="GI4" s="66"/>
+      <c r="GJ4" s="66"/>
+      <c r="GK4" s="66"/>
+      <c r="GL4" s="66"/>
+      <c r="GM4" s="66"/>
+      <c r="GN4" s="66"/>
+      <c r="GO4" s="66"/>
+      <c r="GP4" s="66"/>
+      <c r="GQ4" s="66"/>
+      <c r="GR4" s="66"/>
+      <c r="GS4" s="66"/>
+      <c r="GT4" s="66"/>
+      <c r="GU4" s="66"/>
+      <c r="GV4" s="66"/>
+      <c r="GW4" s="66"/>
+      <c r="GX4" s="66"/>
+      <c r="GY4" s="66"/>
+      <c r="GZ4" s="66"/>
+      <c r="HA4" s="66"/>
+      <c r="HB4" s="66"/>
+      <c r="HC4" s="66"/>
+      <c r="HD4" s="66"/>
+      <c r="HE4" s="66"/>
+      <c r="HF4" s="66"/>
+      <c r="HG4" s="66"/>
+      <c r="HH4" s="66"/>
+      <c r="HI4" s="66"/>
+      <c r="HJ4" s="66"/>
+      <c r="HK4" s="66"/>
+      <c r="HL4" s="66"/>
+      <c r="HM4" s="66"/>
+      <c r="HN4" s="66"/>
+      <c r="HO4" s="66"/>
+      <c r="HP4" s="66"/>
+      <c r="HQ4" s="66"/>
+      <c r="HR4" s="66"/>
+      <c r="HS4" s="66"/>
+      <c r="HT4" s="66"/>
+      <c r="HU4" s="66"/>
+      <c r="HV4" s="66"/>
+      <c r="HW4" s="66"/>
+      <c r="HX4" s="66"/>
+      <c r="HY4" s="66"/>
+      <c r="HZ4" s="66"/>
+      <c r="IA4" s="66"/>
+      <c r="IB4" s="66"/>
+      <c r="IC4" s="66"/>
+      <c r="ID4" s="66"/>
+      <c r="IE4" s="66"/>
+      <c r="IF4" s="66"/>
+      <c r="IG4" s="66"/>
+      <c r="IH4" s="66"/>
+      <c r="II4" s="66"/>
+      <c r="IJ4" s="66"/>
+      <c r="IK4" s="66"/>
+      <c r="IL4" s="66"/>
+      <c r="IM4" s="66"/>
+      <c r="IN4" s="66"/>
+      <c r="IO4" s="66"/>
+      <c r="IP4" s="66"/>
+      <c r="IQ4" s="66"/>
+      <c r="IR4" s="66"/>
+      <c r="IS4" s="66"/>
+      <c r="IT4" s="66"/>
+      <c r="IU4" s="66"/>
+      <c r="IV4" s="66"/>
     </row>
     <row r="5" spans="1:256" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -4900,18 +4897,18 @@
       <c r="IV5" s="2"/>
     </row>
     <row r="6" spans="1:256" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:256" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
@@ -5132,7 +5129,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="39">
-        <f t="shared" si="4"/>
+        <f>((H12*100)/B12)/100</f>
         <v>2.2641509433962263E-2</v>
       </c>
       <c r="J12" s="41">
@@ -5202,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="39">
-        <f t="shared" si="2"/>
+        <f>D14+F14</f>
         <v>0.96875</v>
       </c>
       <c r="H14" s="38">
@@ -5223,34 +5220,38 @@
       <c r="A15" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39" t="e">
+      <c r="B15" s="38">
+        <v>175</v>
+      </c>
+      <c r="C15" s="38">
+        <v>169</v>
+      </c>
+      <c r="D15" s="39">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.96571428571428575</v>
       </c>
       <c r="E15" s="40">
         <v>0</v>
       </c>
-      <c r="F15" s="39" t="e">
+      <c r="F15" s="39">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="G15" s="39">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.96571428571428575</v>
       </c>
       <c r="H15" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="39" t="e">
+        <v>6</v>
+      </c>
+      <c r="I15" s="39">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="41" t="e">
+        <v>3.428571428571428E-2</v>
+      </c>
+      <c r="J15" s="41">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="K15" s="18"/>
     </row>
@@ -5258,34 +5259,38 @@
       <c r="A16" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39" t="e">
+      <c r="B16" s="38">
+        <v>225</v>
+      </c>
+      <c r="C16" s="38">
+        <v>221</v>
+      </c>
+      <c r="D16" s="39">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.98222222222222233</v>
       </c>
       <c r="E16" s="40">
         <v>0</v>
       </c>
-      <c r="F16" s="39" t="e">
+      <c r="F16" s="39">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="G16" s="39">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.98222222222222233</v>
       </c>
       <c r="H16" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="39" t="e">
+        <v>4</v>
+      </c>
+      <c r="I16" s="39">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="41" t="e">
+        <v>1.7777777777777778E-2</v>
+      </c>
+      <c r="J16" s="41">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="K16" s="18"/>
     </row>
@@ -5402,15 +5407,15 @@
       </c>
       <c r="B20" s="43">
         <f>SUM(B8:B19)</f>
-        <v>1260</v>
+        <v>1660</v>
       </c>
       <c r="C20" s="43">
         <f>SUM(C8:C19)</f>
-        <v>1231</v>
+        <v>1621</v>
       </c>
       <c r="D20" s="44">
         <f>C20/B20</f>
-        <v>0.97698412698412695</v>
+        <v>0.97650602409638554</v>
       </c>
       <c r="E20" s="45">
         <f>SUM(E8:E19)</f>
@@ -5422,15 +5427,15 @@
       </c>
       <c r="G20" s="44">
         <f t="shared" si="2"/>
-        <v>0.97698412698412695</v>
+        <v>0.97650602409638554</v>
       </c>
       <c r="H20" s="43">
         <f>SUM(H8:H19)</f>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I20" s="44">
         <f>H20/B20</f>
-        <v>2.3015873015873017E-2</v>
+        <v>2.3493975903614458E-2</v>
       </c>
       <c r="J20" s="46">
         <f>G20+I20</f>
@@ -5452,13 +5457,13 @@
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:19" s="23" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5573,7 +5578,7 @@
         <v>0.97735849056603774</v>
       </c>
       <c r="D28" s="39">
-        <f t="shared" si="7"/>
+        <f>I12</f>
         <v>2.2641509433962263E-2</v>
       </c>
       <c r="E28" s="49">
@@ -5627,15 +5632,15 @@
         <v>22</v>
       </c>
       <c r="B31" s="48">
-        <v>0</v>
-      </c>
-      <c r="C31" s="39" t="e">
+        <v>175</v>
+      </c>
+      <c r="C31" s="39">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="39" t="e">
+        <v>0.96571428571428575</v>
+      </c>
+      <c r="D31" s="39">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>3.428571428571428E-2</v>
       </c>
       <c r="E31" s="49">
         <v>0.9</v>
@@ -5647,15 +5652,15 @@
         <v>23</v>
       </c>
       <c r="B32" s="48">
-        <v>0</v>
-      </c>
-      <c r="C32" s="39" t="e">
+        <v>225</v>
+      </c>
+      <c r="C32" s="39">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="39" t="e">
+        <v>0.98222222222222233</v>
+      </c>
+      <c r="D32" s="39">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.7777777777777778E-2</v>
       </c>
       <c r="E32" s="49">
         <v>0.9</v>
@@ -5728,29 +5733,32 @@
       </c>
       <c r="B36" s="51">
         <f>SUM(B24:B35)</f>
-        <v>1260</v>
-      </c>
-      <c r="C36" s="52" t="e">
-        <f>SUM(C24:C35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D36" s="53" t="e">
-        <f t="shared" ref="D36" si="8">SUM(D24:D35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E36" s="54"/>
+        <v>1660</v>
+      </c>
+      <c r="C36" s="52">
+        <f>D20+F20</f>
+        <v>0.97650602409638554</v>
+      </c>
+      <c r="D36" s="52">
+        <f>I20</f>
+        <v>2.3493975903614458E-2</v>
+      </c>
+      <c r="E36" s="67">
+        <f>J20</f>
+        <v>1</v>
+      </c>
       <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64" t="s">
+      <c r="A38" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="66"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="64"/>
     </row>
     <row r="39" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
@@ -5778,21 +5786,21 @@
       <c r="A40" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="55">
+      <c r="B40" s="53">
         <v>191</v>
       </c>
-      <c r="C40" s="55">
+      <c r="C40" s="53">
         <v>0</v>
       </c>
-      <c r="D40" s="56">
+      <c r="D40" s="54">
         <f>(((B40-C40)*100)/B40)/100</f>
         <v>1</v>
       </c>
-      <c r="E40" s="56">
+      <c r="E40" s="54">
         <f>C40/B40</f>
         <v>0</v>
       </c>
-      <c r="F40" s="57">
+      <c r="F40" s="55">
         <v>0.9</v>
       </c>
       <c r="G40" s="11"/>
@@ -5801,22 +5809,22 @@
       <c r="A41" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="55">
-        <f t="shared" ref="B41:B51" si="9">B9</f>
+      <c r="B41" s="53">
+        <f t="shared" ref="B41:B51" si="8">B9</f>
         <v>147</v>
       </c>
-      <c r="C41" s="55">
+      <c r="C41" s="53">
         <v>0</v>
       </c>
-      <c r="D41" s="56">
-        <f t="shared" ref="D41:D51" si="10">(((B41-C41)*100)/B41)/100</f>
+      <c r="D41" s="54">
+        <f t="shared" ref="D41:D51" si="9">(((B41-C41)*100)/B41)/100</f>
         <v>1</v>
       </c>
-      <c r="E41" s="56">
-        <f t="shared" ref="E41:E51" si="11">C41/B41</f>
+      <c r="E41" s="54">
+        <f t="shared" ref="E41:E51" si="10">C41/B41</f>
         <v>0</v>
       </c>
-      <c r="F41" s="57">
+      <c r="F41" s="55">
         <v>0.9</v>
       </c>
       <c r="G41" s="12"/>
@@ -5825,22 +5833,22 @@
       <c r="A42" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="55">
+      <c r="B42" s="53">
+        <f t="shared" si="8"/>
+        <v>149</v>
+      </c>
+      <c r="C42" s="53">
+        <v>0</v>
+      </c>
+      <c r="D42" s="54">
         <f t="shared" si="9"/>
-        <v>149</v>
-      </c>
-      <c r="C42" s="55">
+        <v>1</v>
+      </c>
+      <c r="E42" s="54">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D42" s="56">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E42" s="56">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="57">
+      <c r="F42" s="55">
         <v>0.9</v>
       </c>
     </row>
@@ -5848,22 +5856,22 @@
       <c r="A43" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="55">
+      <c r="B43" s="53">
+        <f t="shared" si="8"/>
+        <v>149</v>
+      </c>
+      <c r="C43" s="53">
+        <v>0</v>
+      </c>
+      <c r="D43" s="54">
         <f t="shared" si="9"/>
-        <v>149</v>
-      </c>
-      <c r="C43" s="55">
+        <v>1</v>
+      </c>
+      <c r="E43" s="54">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D43" s="56">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E43" s="56">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="57">
+      <c r="F43" s="55">
         <v>0.9</v>
       </c>
       <c r="K43" s="4" t="s">
@@ -5874,22 +5882,22 @@
       <c r="A44" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="55">
+      <c r="B44" s="53">
+        <f t="shared" si="8"/>
+        <v>265</v>
+      </c>
+      <c r="C44" s="53">
+        <v>0</v>
+      </c>
+      <c r="D44" s="54">
         <f t="shared" si="9"/>
-        <v>265</v>
-      </c>
-      <c r="C44" s="55">
+        <v>1</v>
+      </c>
+      <c r="E44" s="54">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D44" s="56">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E44" s="56">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="57">
+      <c r="F44" s="55">
         <v>0.9</v>
       </c>
     </row>
@@ -5897,22 +5905,22 @@
       <c r="A45" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="55">
+      <c r="B45" s="53">
+        <f t="shared" si="8"/>
+        <v>167</v>
+      </c>
+      <c r="C45" s="53">
+        <v>0</v>
+      </c>
+      <c r="D45" s="54">
         <f t="shared" si="9"/>
-        <v>167</v>
-      </c>
-      <c r="C45" s="55">
+        <v>1</v>
+      </c>
+      <c r="E45" s="54">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D45" s="56">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E45" s="56">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="57">
+      <c r="F45" s="55">
         <v>0.9</v>
       </c>
       <c r="G45" s="13"/>
@@ -5921,22 +5929,22 @@
       <c r="A46" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="55">
+      <c r="B46" s="53">
+        <f t="shared" si="8"/>
+        <v>192</v>
+      </c>
+      <c r="C46" s="53">
+        <v>0</v>
+      </c>
+      <c r="D46" s="54">
         <f t="shared" si="9"/>
-        <v>192</v>
-      </c>
-      <c r="C46" s="55">
+        <v>1</v>
+      </c>
+      <c r="E46" s="54">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D46" s="56">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E46" s="56">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="57">
+      <c r="F46" s="55">
         <v>0.9</v>
       </c>
       <c r="G46" s="14"/>
@@ -5945,22 +5953,22 @@
       <c r="A47" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="55">
+      <c r="B47" s="53">
         <f>B15</f>
+        <v>175</v>
+      </c>
+      <c r="C47" s="53">
         <v>0</v>
       </c>
-      <c r="C47" s="55">
+      <c r="D47" s="54">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E47" s="54">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D47" s="56" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E47" s="56" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F47" s="57">
+      <c r="F47" s="55">
         <v>0.9</v>
       </c>
       <c r="G47" s="14"/>
@@ -5969,22 +5977,22 @@
       <c r="A48" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="55">
+      <c r="B48" s="53">
+        <f t="shared" si="8"/>
+        <v>225</v>
+      </c>
+      <c r="C48" s="53">
+        <v>0</v>
+      </c>
+      <c r="D48" s="54">
         <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E48" s="54">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="C48" s="55">
-        <v>0</v>
-      </c>
-      <c r="D48" s="56" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E48" s="56" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F48" s="57">
+      <c r="F48" s="55">
         <v>0.9</v>
       </c>
       <c r="G48" s="13"/>
@@ -5993,21 +6001,21 @@
       <c r="A49" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="55">
+      <c r="B49" s="53">
         <v>0</v>
       </c>
-      <c r="C49" s="55">
+      <c r="C49" s="53">
         <v>0</v>
       </c>
-      <c r="D49" s="56" t="e">
+      <c r="D49" s="54" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49" s="54" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="56" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F49" s="57">
+      <c r="F49" s="55">
         <v>0.9</v>
       </c>
       <c r="G49" s="14"/>
@@ -6016,22 +6024,22 @@
       <c r="A50" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="55">
+      <c r="B50" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C50" s="53">
+        <v>0</v>
+      </c>
+      <c r="D50" s="54" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C50" s="55">
-        <v>0</v>
-      </c>
-      <c r="D50" s="56" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E50" s="54" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E50" s="56" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F50" s="57">
+      <c r="F50" s="55">
         <v>0.9</v>
       </c>
       <c r="G50" s="14"/>
@@ -6041,22 +6049,22 @@
       <c r="A51" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="55">
+      <c r="B51" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C51" s="53">
+        <v>0</v>
+      </c>
+      <c r="D51" s="54" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C51" s="55">
-        <v>0</v>
-      </c>
-      <c r="D51" s="56" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E51" s="54" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E51" s="56" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F51" s="57">
+      <c r="F51" s="55">
         <v>0.9</v>
       </c>
       <c r="L51" s="9"/>
@@ -6067,21 +6075,21 @@
       </c>
       <c r="B52" s="51">
         <f>SUM(B40:B51)</f>
-        <v>1260</v>
-      </c>
-      <c r="C52" s="58">
+        <v>1660</v>
+      </c>
+      <c r="C52" s="56">
         <f>SUM(C40:C51)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="59">
+      <c r="D52" s="57">
         <f>(((B52-C52)*100)/B52)/100</f>
         <v>1</v>
       </c>
-      <c r="E52" s="59">
+      <c r="E52" s="57">
         <f>C52/B52</f>
         <v>0</v>
       </c>
-      <c r="F52" s="60">
+      <c r="F52" s="58">
         <v>1</v>
       </c>
     </row>
@@ -6090,20 +6098,20 @@
     </row>
     <row r="54" spans="1:16" s="19" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="65"/>
+      <c r="M54" s="65"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P61" s="16"/>

--- a/FQ 9.1-001-01 Indicadores da Qualidade 2023.xlsx
+++ b/FQ 9.1-001-01 Indicadores da Qualidade 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sgq\Desktop\Projetos\Indicadores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\5 - ELOHIM\AVALIAÇÃO DE FORNECEDOR\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A56139D-D2CB-4074-806D-BB7C792CD26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2680BEA4-8653-43C3-BAF2-4A451196E6A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAQ - Prazo e Devolução" sheetId="9" r:id="rId1"/>
@@ -690,7 +690,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -836,6 +836,12 @@
     <xf numFmtId="9" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -877,9 +883,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1724,7 +1727,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2897,7 +2900,7 @@
                   <c:v>0.98222222222222233</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.98701298701298701</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2906,7 +2909,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97650602409638554</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4069,8 +4072,8 @@
   </sheetPr>
   <dimension ref="A1:IV122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4089,554 +4092,554 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
     </row>
     <row r="2" spans="1:256" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="66"/>
-      <c r="BB2" s="66"/>
-      <c r="BC2" s="66"/>
-      <c r="BD2" s="66"/>
-      <c r="BE2" s="66"/>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="66"/>
-      <c r="BH2" s="66"/>
-      <c r="BI2" s="66"/>
-      <c r="BJ2" s="66"/>
-      <c r="BK2" s="66"/>
-      <c r="BL2" s="66"/>
-      <c r="BM2" s="66"/>
-      <c r="BN2" s="66"/>
-      <c r="BO2" s="66"/>
-      <c r="BP2" s="66"/>
-      <c r="BQ2" s="66"/>
-      <c r="BR2" s="66"/>
-      <c r="BS2" s="66"/>
-      <c r="BT2" s="66"/>
-      <c r="BU2" s="66"/>
-      <c r="BV2" s="66"/>
-      <c r="BW2" s="66"/>
-      <c r="BX2" s="66"/>
-      <c r="BY2" s="66"/>
-      <c r="BZ2" s="66"/>
-      <c r="CA2" s="66"/>
-      <c r="CB2" s="66"/>
-      <c r="CC2" s="66"/>
-      <c r="CD2" s="66"/>
-      <c r="CE2" s="66"/>
-      <c r="CF2" s="66"/>
-      <c r="CG2" s="66"/>
-      <c r="CH2" s="66"/>
-      <c r="CI2" s="66"/>
-      <c r="CJ2" s="66"/>
-      <c r="CK2" s="66"/>
-      <c r="CL2" s="66"/>
-      <c r="CM2" s="66"/>
-      <c r="CN2" s="66"/>
-      <c r="CO2" s="66"/>
-      <c r="CP2" s="66"/>
-      <c r="CQ2" s="66"/>
-      <c r="CR2" s="66"/>
-      <c r="CS2" s="66"/>
-      <c r="CT2" s="66"/>
-      <c r="CU2" s="66"/>
-      <c r="CV2" s="66"/>
-      <c r="CW2" s="66"/>
-      <c r="CX2" s="66"/>
-      <c r="CY2" s="66"/>
-      <c r="CZ2" s="66"/>
-      <c r="DA2" s="66"/>
-      <c r="DB2" s="66"/>
-      <c r="DC2" s="66"/>
-      <c r="DD2" s="66"/>
-      <c r="DE2" s="66"/>
-      <c r="DF2" s="66"/>
-      <c r="DG2" s="66"/>
-      <c r="DH2" s="66"/>
-      <c r="DI2" s="66"/>
-      <c r="DJ2" s="66"/>
-      <c r="DK2" s="66"/>
-      <c r="DL2" s="66"/>
-      <c r="DM2" s="66"/>
-      <c r="DN2" s="66"/>
-      <c r="DO2" s="66"/>
-      <c r="DP2" s="66"/>
-      <c r="DQ2" s="66"/>
-      <c r="DR2" s="66"/>
-      <c r="DS2" s="66"/>
-      <c r="DT2" s="66"/>
-      <c r="DU2" s="66"/>
-      <c r="DV2" s="66"/>
-      <c r="DW2" s="66"/>
-      <c r="DX2" s="66"/>
-      <c r="DY2" s="66"/>
-      <c r="DZ2" s="66"/>
-      <c r="EA2" s="66"/>
-      <c r="EB2" s="66"/>
-      <c r="EC2" s="66"/>
-      <c r="ED2" s="66"/>
-      <c r="EE2" s="66"/>
-      <c r="EF2" s="66"/>
-      <c r="EG2" s="66"/>
-      <c r="EH2" s="66"/>
-      <c r="EI2" s="66"/>
-      <c r="EJ2" s="66"/>
-      <c r="EK2" s="66"/>
-      <c r="EL2" s="66"/>
-      <c r="EM2" s="66"/>
-      <c r="EN2" s="66"/>
-      <c r="EO2" s="66"/>
-      <c r="EP2" s="66"/>
-      <c r="EQ2" s="66"/>
-      <c r="ER2" s="66"/>
-      <c r="ES2" s="66"/>
-      <c r="ET2" s="66"/>
-      <c r="EU2" s="66"/>
-      <c r="EV2" s="66"/>
-      <c r="EW2" s="66"/>
-      <c r="EX2" s="66"/>
-      <c r="EY2" s="66"/>
-      <c r="EZ2" s="66"/>
-      <c r="FA2" s="66"/>
-      <c r="FB2" s="66"/>
-      <c r="FC2" s="66"/>
-      <c r="FD2" s="66"/>
-      <c r="FE2" s="66"/>
-      <c r="FF2" s="66"/>
-      <c r="FG2" s="66"/>
-      <c r="FH2" s="66"/>
-      <c r="FI2" s="66"/>
-      <c r="FJ2" s="66"/>
-      <c r="FK2" s="66"/>
-      <c r="FL2" s="66"/>
-      <c r="FM2" s="66"/>
-      <c r="FN2" s="66"/>
-      <c r="FO2" s="66"/>
-      <c r="FP2" s="66"/>
-      <c r="FQ2" s="66"/>
-      <c r="FR2" s="66"/>
-      <c r="FS2" s="66"/>
-      <c r="FT2" s="66"/>
-      <c r="FU2" s="66"/>
-      <c r="FV2" s="66"/>
-      <c r="FW2" s="66"/>
-      <c r="FX2" s="66"/>
-      <c r="FY2" s="66"/>
-      <c r="FZ2" s="66"/>
-      <c r="GA2" s="66"/>
-      <c r="GB2" s="66"/>
-      <c r="GC2" s="66"/>
-      <c r="GD2" s="66"/>
-      <c r="GE2" s="66"/>
-      <c r="GF2" s="66"/>
-      <c r="GG2" s="66"/>
-      <c r="GH2" s="66"/>
-      <c r="GI2" s="66"/>
-      <c r="GJ2" s="66"/>
-      <c r="GK2" s="66"/>
-      <c r="GL2" s="66"/>
-      <c r="GM2" s="66"/>
-      <c r="GN2" s="66"/>
-      <c r="GO2" s="66"/>
-      <c r="GP2" s="66"/>
-      <c r="GQ2" s="66"/>
-      <c r="GR2" s="66"/>
-      <c r="GS2" s="66"/>
-      <c r="GT2" s="66"/>
-      <c r="GU2" s="66"/>
-      <c r="GV2" s="66"/>
-      <c r="GW2" s="66"/>
-      <c r="GX2" s="66"/>
-      <c r="GY2" s="66"/>
-      <c r="GZ2" s="66"/>
-      <c r="HA2" s="66"/>
-      <c r="HB2" s="66"/>
-      <c r="HC2" s="66"/>
-      <c r="HD2" s="66"/>
-      <c r="HE2" s="66"/>
-      <c r="HF2" s="66"/>
-      <c r="HG2" s="66"/>
-      <c r="HH2" s="66"/>
-      <c r="HI2" s="66"/>
-      <c r="HJ2" s="66"/>
-      <c r="HK2" s="66"/>
-      <c r="HL2" s="66"/>
-      <c r="HM2" s="66"/>
-      <c r="HN2" s="66"/>
-      <c r="HO2" s="66"/>
-      <c r="HP2" s="66"/>
-      <c r="HQ2" s="66"/>
-      <c r="HR2" s="66"/>
-      <c r="HS2" s="66"/>
-      <c r="HT2" s="66"/>
-      <c r="HU2" s="66"/>
-      <c r="HV2" s="66"/>
-      <c r="HW2" s="66"/>
-      <c r="HX2" s="66"/>
-      <c r="HY2" s="66"/>
-      <c r="HZ2" s="66"/>
-      <c r="IA2" s="66"/>
-      <c r="IB2" s="66"/>
-      <c r="IC2" s="66"/>
-      <c r="ID2" s="66"/>
-      <c r="IE2" s="66"/>
-      <c r="IF2" s="66"/>
-      <c r="IG2" s="66"/>
-      <c r="IH2" s="66"/>
-      <c r="II2" s="66"/>
-      <c r="IJ2" s="66"/>
-      <c r="IK2" s="66"/>
-      <c r="IL2" s="66"/>
-      <c r="IM2" s="66"/>
-      <c r="IN2" s="66"/>
-      <c r="IO2" s="66"/>
-      <c r="IP2" s="66"/>
-      <c r="IQ2" s="66"/>
-      <c r="IR2" s="66"/>
-      <c r="IS2" s="66"/>
-      <c r="IT2" s="66"/>
-      <c r="IU2" s="66"/>
-      <c r="IV2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="68"/>
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="68"/>
+      <c r="AV2" s="68"/>
+      <c r="AW2" s="68"/>
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="68"/>
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="68"/>
+      <c r="BB2" s="68"/>
+      <c r="BC2" s="68"/>
+      <c r="BD2" s="68"/>
+      <c r="BE2" s="68"/>
+      <c r="BF2" s="68"/>
+      <c r="BG2" s="68"/>
+      <c r="BH2" s="68"/>
+      <c r="BI2" s="68"/>
+      <c r="BJ2" s="68"/>
+      <c r="BK2" s="68"/>
+      <c r="BL2" s="68"/>
+      <c r="BM2" s="68"/>
+      <c r="BN2" s="68"/>
+      <c r="BO2" s="68"/>
+      <c r="BP2" s="68"/>
+      <c r="BQ2" s="68"/>
+      <c r="BR2" s="68"/>
+      <c r="BS2" s="68"/>
+      <c r="BT2" s="68"/>
+      <c r="BU2" s="68"/>
+      <c r="BV2" s="68"/>
+      <c r="BW2" s="68"/>
+      <c r="BX2" s="68"/>
+      <c r="BY2" s="68"/>
+      <c r="BZ2" s="68"/>
+      <c r="CA2" s="68"/>
+      <c r="CB2" s="68"/>
+      <c r="CC2" s="68"/>
+      <c r="CD2" s="68"/>
+      <c r="CE2" s="68"/>
+      <c r="CF2" s="68"/>
+      <c r="CG2" s="68"/>
+      <c r="CH2" s="68"/>
+      <c r="CI2" s="68"/>
+      <c r="CJ2" s="68"/>
+      <c r="CK2" s="68"/>
+      <c r="CL2" s="68"/>
+      <c r="CM2" s="68"/>
+      <c r="CN2" s="68"/>
+      <c r="CO2" s="68"/>
+      <c r="CP2" s="68"/>
+      <c r="CQ2" s="68"/>
+      <c r="CR2" s="68"/>
+      <c r="CS2" s="68"/>
+      <c r="CT2" s="68"/>
+      <c r="CU2" s="68"/>
+      <c r="CV2" s="68"/>
+      <c r="CW2" s="68"/>
+      <c r="CX2" s="68"/>
+      <c r="CY2" s="68"/>
+      <c r="CZ2" s="68"/>
+      <c r="DA2" s="68"/>
+      <c r="DB2" s="68"/>
+      <c r="DC2" s="68"/>
+      <c r="DD2" s="68"/>
+      <c r="DE2" s="68"/>
+      <c r="DF2" s="68"/>
+      <c r="DG2" s="68"/>
+      <c r="DH2" s="68"/>
+      <c r="DI2" s="68"/>
+      <c r="DJ2" s="68"/>
+      <c r="DK2" s="68"/>
+      <c r="DL2" s="68"/>
+      <c r="DM2" s="68"/>
+      <c r="DN2" s="68"/>
+      <c r="DO2" s="68"/>
+      <c r="DP2" s="68"/>
+      <c r="DQ2" s="68"/>
+      <c r="DR2" s="68"/>
+      <c r="DS2" s="68"/>
+      <c r="DT2" s="68"/>
+      <c r="DU2" s="68"/>
+      <c r="DV2" s="68"/>
+      <c r="DW2" s="68"/>
+      <c r="DX2" s="68"/>
+      <c r="DY2" s="68"/>
+      <c r="DZ2" s="68"/>
+      <c r="EA2" s="68"/>
+      <c r="EB2" s="68"/>
+      <c r="EC2" s="68"/>
+      <c r="ED2" s="68"/>
+      <c r="EE2" s="68"/>
+      <c r="EF2" s="68"/>
+      <c r="EG2" s="68"/>
+      <c r="EH2" s="68"/>
+      <c r="EI2" s="68"/>
+      <c r="EJ2" s="68"/>
+      <c r="EK2" s="68"/>
+      <c r="EL2" s="68"/>
+      <c r="EM2" s="68"/>
+      <c r="EN2" s="68"/>
+      <c r="EO2" s="68"/>
+      <c r="EP2" s="68"/>
+      <c r="EQ2" s="68"/>
+      <c r="ER2" s="68"/>
+      <c r="ES2" s="68"/>
+      <c r="ET2" s="68"/>
+      <c r="EU2" s="68"/>
+      <c r="EV2" s="68"/>
+      <c r="EW2" s="68"/>
+      <c r="EX2" s="68"/>
+      <c r="EY2" s="68"/>
+      <c r="EZ2" s="68"/>
+      <c r="FA2" s="68"/>
+      <c r="FB2" s="68"/>
+      <c r="FC2" s="68"/>
+      <c r="FD2" s="68"/>
+      <c r="FE2" s="68"/>
+      <c r="FF2" s="68"/>
+      <c r="FG2" s="68"/>
+      <c r="FH2" s="68"/>
+      <c r="FI2" s="68"/>
+      <c r="FJ2" s="68"/>
+      <c r="FK2" s="68"/>
+      <c r="FL2" s="68"/>
+      <c r="FM2" s="68"/>
+      <c r="FN2" s="68"/>
+      <c r="FO2" s="68"/>
+      <c r="FP2" s="68"/>
+      <c r="FQ2" s="68"/>
+      <c r="FR2" s="68"/>
+      <c r="FS2" s="68"/>
+      <c r="FT2" s="68"/>
+      <c r="FU2" s="68"/>
+      <c r="FV2" s="68"/>
+      <c r="FW2" s="68"/>
+      <c r="FX2" s="68"/>
+      <c r="FY2" s="68"/>
+      <c r="FZ2" s="68"/>
+      <c r="GA2" s="68"/>
+      <c r="GB2" s="68"/>
+      <c r="GC2" s="68"/>
+      <c r="GD2" s="68"/>
+      <c r="GE2" s="68"/>
+      <c r="GF2" s="68"/>
+      <c r="GG2" s="68"/>
+      <c r="GH2" s="68"/>
+      <c r="GI2" s="68"/>
+      <c r="GJ2" s="68"/>
+      <c r="GK2" s="68"/>
+      <c r="GL2" s="68"/>
+      <c r="GM2" s="68"/>
+      <c r="GN2" s="68"/>
+      <c r="GO2" s="68"/>
+      <c r="GP2" s="68"/>
+      <c r="GQ2" s="68"/>
+      <c r="GR2" s="68"/>
+      <c r="GS2" s="68"/>
+      <c r="GT2" s="68"/>
+      <c r="GU2" s="68"/>
+      <c r="GV2" s="68"/>
+      <c r="GW2" s="68"/>
+      <c r="GX2" s="68"/>
+      <c r="GY2" s="68"/>
+      <c r="GZ2" s="68"/>
+      <c r="HA2" s="68"/>
+      <c r="HB2" s="68"/>
+      <c r="HC2" s="68"/>
+      <c r="HD2" s="68"/>
+      <c r="HE2" s="68"/>
+      <c r="HF2" s="68"/>
+      <c r="HG2" s="68"/>
+      <c r="HH2" s="68"/>
+      <c r="HI2" s="68"/>
+      <c r="HJ2" s="68"/>
+      <c r="HK2" s="68"/>
+      <c r="HL2" s="68"/>
+      <c r="HM2" s="68"/>
+      <c r="HN2" s="68"/>
+      <c r="HO2" s="68"/>
+      <c r="HP2" s="68"/>
+      <c r="HQ2" s="68"/>
+      <c r="HR2" s="68"/>
+      <c r="HS2" s="68"/>
+      <c r="HT2" s="68"/>
+      <c r="HU2" s="68"/>
+      <c r="HV2" s="68"/>
+      <c r="HW2" s="68"/>
+      <c r="HX2" s="68"/>
+      <c r="HY2" s="68"/>
+      <c r="HZ2" s="68"/>
+      <c r="IA2" s="68"/>
+      <c r="IB2" s="68"/>
+      <c r="IC2" s="68"/>
+      <c r="ID2" s="68"/>
+      <c r="IE2" s="68"/>
+      <c r="IF2" s="68"/>
+      <c r="IG2" s="68"/>
+      <c r="IH2" s="68"/>
+      <c r="II2" s="68"/>
+      <c r="IJ2" s="68"/>
+      <c r="IK2" s="68"/>
+      <c r="IL2" s="68"/>
+      <c r="IM2" s="68"/>
+      <c r="IN2" s="68"/>
+      <c r="IO2" s="68"/>
+      <c r="IP2" s="68"/>
+      <c r="IQ2" s="68"/>
+      <c r="IR2" s="68"/>
+      <c r="IS2" s="68"/>
+      <c r="IT2" s="68"/>
+      <c r="IU2" s="68"/>
+      <c r="IV2" s="68"/>
     </row>
     <row r="3" spans="1:256" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="1:256" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="66"/>
-      <c r="AN4" s="66"/>
-      <c r="AO4" s="66"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="66"/>
-      <c r="AR4" s="66"/>
-      <c r="AS4" s="66"/>
-      <c r="AT4" s="66"/>
-      <c r="AU4" s="66"/>
-      <c r="AV4" s="66"/>
-      <c r="AW4" s="66"/>
-      <c r="AX4" s="66"/>
-      <c r="AY4" s="66"/>
-      <c r="AZ4" s="66"/>
-      <c r="BA4" s="66"/>
-      <c r="BB4" s="66"/>
-      <c r="BC4" s="66"/>
-      <c r="BD4" s="66"/>
-      <c r="BE4" s="66"/>
-      <c r="BF4" s="66"/>
-      <c r="BG4" s="66"/>
-      <c r="BH4" s="66"/>
-      <c r="BI4" s="66"/>
-      <c r="BJ4" s="66"/>
-      <c r="BK4" s="66"/>
-      <c r="BL4" s="66"/>
-      <c r="BM4" s="66"/>
-      <c r="BN4" s="66"/>
-      <c r="BO4" s="66"/>
-      <c r="BP4" s="66"/>
-      <c r="BQ4" s="66"/>
-      <c r="BR4" s="66"/>
-      <c r="BS4" s="66"/>
-      <c r="BT4" s="66"/>
-      <c r="BU4" s="66"/>
-      <c r="BV4" s="66"/>
-      <c r="BW4" s="66"/>
-      <c r="BX4" s="66"/>
-      <c r="BY4" s="66"/>
-      <c r="BZ4" s="66"/>
-      <c r="CA4" s="66"/>
-      <c r="CB4" s="66"/>
-      <c r="CC4" s="66"/>
-      <c r="CD4" s="66"/>
-      <c r="CE4" s="66"/>
-      <c r="CF4" s="66"/>
-      <c r="CG4" s="66"/>
-      <c r="CH4" s="66"/>
-      <c r="CI4" s="66"/>
-      <c r="CJ4" s="66"/>
-      <c r="CK4" s="66"/>
-      <c r="CL4" s="66"/>
-      <c r="CM4" s="66"/>
-      <c r="CN4" s="66"/>
-      <c r="CO4" s="66"/>
-      <c r="CP4" s="66"/>
-      <c r="CQ4" s="66"/>
-      <c r="CR4" s="66"/>
-      <c r="CS4" s="66"/>
-      <c r="CT4" s="66"/>
-      <c r="CU4" s="66"/>
-      <c r="CV4" s="66"/>
-      <c r="CW4" s="66"/>
-      <c r="CX4" s="66"/>
-      <c r="CY4" s="66"/>
-      <c r="CZ4" s="66"/>
-      <c r="DA4" s="66"/>
-      <c r="DB4" s="66"/>
-      <c r="DC4" s="66"/>
-      <c r="DD4" s="66"/>
-      <c r="DE4" s="66"/>
-      <c r="DF4" s="66"/>
-      <c r="DG4" s="66"/>
-      <c r="DH4" s="66"/>
-      <c r="DI4" s="66"/>
-      <c r="DJ4" s="66"/>
-      <c r="DK4" s="66"/>
-      <c r="DL4" s="66"/>
-      <c r="DM4" s="66"/>
-      <c r="DN4" s="66"/>
-      <c r="DO4" s="66"/>
-      <c r="DP4" s="66"/>
-      <c r="DQ4" s="66"/>
-      <c r="DR4" s="66"/>
-      <c r="DS4" s="66"/>
-      <c r="DT4" s="66"/>
-      <c r="DU4" s="66"/>
-      <c r="DV4" s="66"/>
-      <c r="DW4" s="66"/>
-      <c r="DX4" s="66"/>
-      <c r="DY4" s="66"/>
-      <c r="DZ4" s="66"/>
-      <c r="EA4" s="66"/>
-      <c r="EB4" s="66"/>
-      <c r="EC4" s="66"/>
-      <c r="ED4" s="66"/>
-      <c r="EE4" s="66"/>
-      <c r="EF4" s="66"/>
-      <c r="EG4" s="66"/>
-      <c r="EH4" s="66"/>
-      <c r="EI4" s="66"/>
-      <c r="EJ4" s="66"/>
-      <c r="EK4" s="66"/>
-      <c r="EL4" s="66"/>
-      <c r="EM4" s="66"/>
-      <c r="EN4" s="66"/>
-      <c r="EO4" s="66"/>
-      <c r="EP4" s="66"/>
-      <c r="EQ4" s="66"/>
-      <c r="ER4" s="66"/>
-      <c r="ES4" s="66"/>
-      <c r="ET4" s="66"/>
-      <c r="EU4" s="66"/>
-      <c r="EV4" s="66"/>
-      <c r="EW4" s="66"/>
-      <c r="EX4" s="66"/>
-      <c r="EY4" s="66"/>
-      <c r="EZ4" s="66"/>
-      <c r="FA4" s="66"/>
-      <c r="FB4" s="66"/>
-      <c r="FC4" s="66"/>
-      <c r="FD4" s="66"/>
-      <c r="FE4" s="66"/>
-      <c r="FF4" s="66"/>
-      <c r="FG4" s="66"/>
-      <c r="FH4" s="66"/>
-      <c r="FI4" s="66"/>
-      <c r="FJ4" s="66"/>
-      <c r="FK4" s="66"/>
-      <c r="FL4" s="66"/>
-      <c r="FM4" s="66"/>
-      <c r="FN4" s="66"/>
-      <c r="FO4" s="66"/>
-      <c r="FP4" s="66"/>
-      <c r="FQ4" s="66"/>
-      <c r="FR4" s="66"/>
-      <c r="FS4" s="66"/>
-      <c r="FT4" s="66"/>
-      <c r="FU4" s="66"/>
-      <c r="FV4" s="66"/>
-      <c r="FW4" s="66"/>
-      <c r="FX4" s="66"/>
-      <c r="FY4" s="66"/>
-      <c r="FZ4" s="66"/>
-      <c r="GA4" s="66"/>
-      <c r="GB4" s="66"/>
-      <c r="GC4" s="66"/>
-      <c r="GD4" s="66"/>
-      <c r="GE4" s="66"/>
-      <c r="GF4" s="66"/>
-      <c r="GG4" s="66"/>
-      <c r="GH4" s="66"/>
-      <c r="GI4" s="66"/>
-      <c r="GJ4" s="66"/>
-      <c r="GK4" s="66"/>
-      <c r="GL4" s="66"/>
-      <c r="GM4" s="66"/>
-      <c r="GN4" s="66"/>
-      <c r="GO4" s="66"/>
-      <c r="GP4" s="66"/>
-      <c r="GQ4" s="66"/>
-      <c r="GR4" s="66"/>
-      <c r="GS4" s="66"/>
-      <c r="GT4" s="66"/>
-      <c r="GU4" s="66"/>
-      <c r="GV4" s="66"/>
-      <c r="GW4" s="66"/>
-      <c r="GX4" s="66"/>
-      <c r="GY4" s="66"/>
-      <c r="GZ4" s="66"/>
-      <c r="HA4" s="66"/>
-      <c r="HB4" s="66"/>
-      <c r="HC4" s="66"/>
-      <c r="HD4" s="66"/>
-      <c r="HE4" s="66"/>
-      <c r="HF4" s="66"/>
-      <c r="HG4" s="66"/>
-      <c r="HH4" s="66"/>
-      <c r="HI4" s="66"/>
-      <c r="HJ4" s="66"/>
-      <c r="HK4" s="66"/>
-      <c r="HL4" s="66"/>
-      <c r="HM4" s="66"/>
-      <c r="HN4" s="66"/>
-      <c r="HO4" s="66"/>
-      <c r="HP4" s="66"/>
-      <c r="HQ4" s="66"/>
-      <c r="HR4" s="66"/>
-      <c r="HS4" s="66"/>
-      <c r="HT4" s="66"/>
-      <c r="HU4" s="66"/>
-      <c r="HV4" s="66"/>
-      <c r="HW4" s="66"/>
-      <c r="HX4" s="66"/>
-      <c r="HY4" s="66"/>
-      <c r="HZ4" s="66"/>
-      <c r="IA4" s="66"/>
-      <c r="IB4" s="66"/>
-      <c r="IC4" s="66"/>
-      <c r="ID4" s="66"/>
-      <c r="IE4" s="66"/>
-      <c r="IF4" s="66"/>
-      <c r="IG4" s="66"/>
-      <c r="IH4" s="66"/>
-      <c r="II4" s="66"/>
-      <c r="IJ4" s="66"/>
-      <c r="IK4" s="66"/>
-      <c r="IL4" s="66"/>
-      <c r="IM4" s="66"/>
-      <c r="IN4" s="66"/>
-      <c r="IO4" s="66"/>
-      <c r="IP4" s="66"/>
-      <c r="IQ4" s="66"/>
-      <c r="IR4" s="66"/>
-      <c r="IS4" s="66"/>
-      <c r="IT4" s="66"/>
-      <c r="IU4" s="66"/>
-      <c r="IV4" s="66"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="68"/>
+      <c r="AP4" s="68"/>
+      <c r="AQ4" s="68"/>
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="68"/>
+      <c r="AV4" s="68"/>
+      <c r="AW4" s="68"/>
+      <c r="AX4" s="68"/>
+      <c r="AY4" s="68"/>
+      <c r="AZ4" s="68"/>
+      <c r="BA4" s="68"/>
+      <c r="BB4" s="68"/>
+      <c r="BC4" s="68"/>
+      <c r="BD4" s="68"/>
+      <c r="BE4" s="68"/>
+      <c r="BF4" s="68"/>
+      <c r="BG4" s="68"/>
+      <c r="BH4" s="68"/>
+      <c r="BI4" s="68"/>
+      <c r="BJ4" s="68"/>
+      <c r="BK4" s="68"/>
+      <c r="BL4" s="68"/>
+      <c r="BM4" s="68"/>
+      <c r="BN4" s="68"/>
+      <c r="BO4" s="68"/>
+      <c r="BP4" s="68"/>
+      <c r="BQ4" s="68"/>
+      <c r="BR4" s="68"/>
+      <c r="BS4" s="68"/>
+      <c r="BT4" s="68"/>
+      <c r="BU4" s="68"/>
+      <c r="BV4" s="68"/>
+      <c r="BW4" s="68"/>
+      <c r="BX4" s="68"/>
+      <c r="BY4" s="68"/>
+      <c r="BZ4" s="68"/>
+      <c r="CA4" s="68"/>
+      <c r="CB4" s="68"/>
+      <c r="CC4" s="68"/>
+      <c r="CD4" s="68"/>
+      <c r="CE4" s="68"/>
+      <c r="CF4" s="68"/>
+      <c r="CG4" s="68"/>
+      <c r="CH4" s="68"/>
+      <c r="CI4" s="68"/>
+      <c r="CJ4" s="68"/>
+      <c r="CK4" s="68"/>
+      <c r="CL4" s="68"/>
+      <c r="CM4" s="68"/>
+      <c r="CN4" s="68"/>
+      <c r="CO4" s="68"/>
+      <c r="CP4" s="68"/>
+      <c r="CQ4" s="68"/>
+      <c r="CR4" s="68"/>
+      <c r="CS4" s="68"/>
+      <c r="CT4" s="68"/>
+      <c r="CU4" s="68"/>
+      <c r="CV4" s="68"/>
+      <c r="CW4" s="68"/>
+      <c r="CX4" s="68"/>
+      <c r="CY4" s="68"/>
+      <c r="CZ4" s="68"/>
+      <c r="DA4" s="68"/>
+      <c r="DB4" s="68"/>
+      <c r="DC4" s="68"/>
+      <c r="DD4" s="68"/>
+      <c r="DE4" s="68"/>
+      <c r="DF4" s="68"/>
+      <c r="DG4" s="68"/>
+      <c r="DH4" s="68"/>
+      <c r="DI4" s="68"/>
+      <c r="DJ4" s="68"/>
+      <c r="DK4" s="68"/>
+      <c r="DL4" s="68"/>
+      <c r="DM4" s="68"/>
+      <c r="DN4" s="68"/>
+      <c r="DO4" s="68"/>
+      <c r="DP4" s="68"/>
+      <c r="DQ4" s="68"/>
+      <c r="DR4" s="68"/>
+      <c r="DS4" s="68"/>
+      <c r="DT4" s="68"/>
+      <c r="DU4" s="68"/>
+      <c r="DV4" s="68"/>
+      <c r="DW4" s="68"/>
+      <c r="DX4" s="68"/>
+      <c r="DY4" s="68"/>
+      <c r="DZ4" s="68"/>
+      <c r="EA4" s="68"/>
+      <c r="EB4" s="68"/>
+      <c r="EC4" s="68"/>
+      <c r="ED4" s="68"/>
+      <c r="EE4" s="68"/>
+      <c r="EF4" s="68"/>
+      <c r="EG4" s="68"/>
+      <c r="EH4" s="68"/>
+      <c r="EI4" s="68"/>
+      <c r="EJ4" s="68"/>
+      <c r="EK4" s="68"/>
+      <c r="EL4" s="68"/>
+      <c r="EM4" s="68"/>
+      <c r="EN4" s="68"/>
+      <c r="EO4" s="68"/>
+      <c r="EP4" s="68"/>
+      <c r="EQ4" s="68"/>
+      <c r="ER4" s="68"/>
+      <c r="ES4" s="68"/>
+      <c r="ET4" s="68"/>
+      <c r="EU4" s="68"/>
+      <c r="EV4" s="68"/>
+      <c r="EW4" s="68"/>
+      <c r="EX4" s="68"/>
+      <c r="EY4" s="68"/>
+      <c r="EZ4" s="68"/>
+      <c r="FA4" s="68"/>
+      <c r="FB4" s="68"/>
+      <c r="FC4" s="68"/>
+      <c r="FD4" s="68"/>
+      <c r="FE4" s="68"/>
+      <c r="FF4" s="68"/>
+      <c r="FG4" s="68"/>
+      <c r="FH4" s="68"/>
+      <c r="FI4" s="68"/>
+      <c r="FJ4" s="68"/>
+      <c r="FK4" s="68"/>
+      <c r="FL4" s="68"/>
+      <c r="FM4" s="68"/>
+      <c r="FN4" s="68"/>
+      <c r="FO4" s="68"/>
+      <c r="FP4" s="68"/>
+      <c r="FQ4" s="68"/>
+      <c r="FR4" s="68"/>
+      <c r="FS4" s="68"/>
+      <c r="FT4" s="68"/>
+      <c r="FU4" s="68"/>
+      <c r="FV4" s="68"/>
+      <c r="FW4" s="68"/>
+      <c r="FX4" s="68"/>
+      <c r="FY4" s="68"/>
+      <c r="FZ4" s="68"/>
+      <c r="GA4" s="68"/>
+      <c r="GB4" s="68"/>
+      <c r="GC4" s="68"/>
+      <c r="GD4" s="68"/>
+      <c r="GE4" s="68"/>
+      <c r="GF4" s="68"/>
+      <c r="GG4" s="68"/>
+      <c r="GH4" s="68"/>
+      <c r="GI4" s="68"/>
+      <c r="GJ4" s="68"/>
+      <c r="GK4" s="68"/>
+      <c r="GL4" s="68"/>
+      <c r="GM4" s="68"/>
+      <c r="GN4" s="68"/>
+      <c r="GO4" s="68"/>
+      <c r="GP4" s="68"/>
+      <c r="GQ4" s="68"/>
+      <c r="GR4" s="68"/>
+      <c r="GS4" s="68"/>
+      <c r="GT4" s="68"/>
+      <c r="GU4" s="68"/>
+      <c r="GV4" s="68"/>
+      <c r="GW4" s="68"/>
+      <c r="GX4" s="68"/>
+      <c r="GY4" s="68"/>
+      <c r="GZ4" s="68"/>
+      <c r="HA4" s="68"/>
+      <c r="HB4" s="68"/>
+      <c r="HC4" s="68"/>
+      <c r="HD4" s="68"/>
+      <c r="HE4" s="68"/>
+      <c r="HF4" s="68"/>
+      <c r="HG4" s="68"/>
+      <c r="HH4" s="68"/>
+      <c r="HI4" s="68"/>
+      <c r="HJ4" s="68"/>
+      <c r="HK4" s="68"/>
+      <c r="HL4" s="68"/>
+      <c r="HM4" s="68"/>
+      <c r="HN4" s="68"/>
+      <c r="HO4" s="68"/>
+      <c r="HP4" s="68"/>
+      <c r="HQ4" s="68"/>
+      <c r="HR4" s="68"/>
+      <c r="HS4" s="68"/>
+      <c r="HT4" s="68"/>
+      <c r="HU4" s="68"/>
+      <c r="HV4" s="68"/>
+      <c r="HW4" s="68"/>
+      <c r="HX4" s="68"/>
+      <c r="HY4" s="68"/>
+      <c r="HZ4" s="68"/>
+      <c r="IA4" s="68"/>
+      <c r="IB4" s="68"/>
+      <c r="IC4" s="68"/>
+      <c r="ID4" s="68"/>
+      <c r="IE4" s="68"/>
+      <c r="IF4" s="68"/>
+      <c r="IG4" s="68"/>
+      <c r="IH4" s="68"/>
+      <c r="II4" s="68"/>
+      <c r="IJ4" s="68"/>
+      <c r="IK4" s="68"/>
+      <c r="IL4" s="68"/>
+      <c r="IM4" s="68"/>
+      <c r="IN4" s="68"/>
+      <c r="IO4" s="68"/>
+      <c r="IP4" s="68"/>
+      <c r="IQ4" s="68"/>
+      <c r="IR4" s="68"/>
+      <c r="IS4" s="68"/>
+      <c r="IT4" s="68"/>
+      <c r="IU4" s="68"/>
+      <c r="IV4" s="68"/>
     </row>
     <row r="5" spans="1:256" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -4897,18 +4900,18 @@
       <c r="IV5" s="2"/>
     </row>
     <row r="6" spans="1:256" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:256" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
@@ -5129,7 +5132,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="39">
-        <f>((H12*100)/B12)/100</f>
+        <f t="shared" si="4"/>
         <v>2.2641509433962263E-2</v>
       </c>
       <c r="J12" s="41">
@@ -5199,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="39">
-        <f>D14+F14</f>
+        <f t="shared" si="2"/>
         <v>0.96875</v>
       </c>
       <c r="H14" s="38">
@@ -5298,34 +5301,38 @@
       <c r="A17" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39" t="e">
+      <c r="B17" s="38">
+        <v>231</v>
+      </c>
+      <c r="C17" s="38">
+        <v>228</v>
+      </c>
+      <c r="D17" s="39">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.98701298701298701</v>
       </c>
       <c r="E17" s="40">
         <v>0</v>
       </c>
-      <c r="F17" s="39" t="e">
+      <c r="F17" s="39">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="G17" s="39">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.98701298701298701</v>
       </c>
       <c r="H17" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="39" t="e">
+        <v>3</v>
+      </c>
+      <c r="I17" s="39">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="41" t="e">
+        <v>1.2987012987012986E-2</v>
+      </c>
+      <c r="J17" s="41">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="K17" s="18"/>
     </row>
@@ -5407,15 +5414,15 @@
       </c>
       <c r="B20" s="43">
         <f>SUM(B8:B19)</f>
-        <v>1660</v>
+        <v>1891</v>
       </c>
       <c r="C20" s="43">
         <f>SUM(C8:C19)</f>
-        <v>1621</v>
+        <v>1849</v>
       </c>
       <c r="D20" s="44">
         <f>C20/B20</f>
-        <v>0.97650602409638554</v>
+        <v>0.97778952934955055</v>
       </c>
       <c r="E20" s="45">
         <f>SUM(E8:E19)</f>
@@ -5427,15 +5434,15 @@
       </c>
       <c r="G20" s="44">
         <f t="shared" si="2"/>
-        <v>0.97650602409638554</v>
+        <v>0.97778952934955055</v>
       </c>
       <c r="H20" s="43">
         <f>SUM(H8:H19)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I20" s="44">
         <f>H20/B20</f>
-        <v>2.3493975903614458E-2</v>
+        <v>2.2210470650449499E-2</v>
       </c>
       <c r="J20" s="46">
         <f>G20+I20</f>
@@ -5457,13 +5464,13 @@
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:19" s="23" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5578,7 +5585,7 @@
         <v>0.97735849056603774</v>
       </c>
       <c r="D28" s="39">
-        <f>I12</f>
+        <f t="shared" si="7"/>
         <v>2.2641509433962263E-2</v>
       </c>
       <c r="E28" s="49">
@@ -5672,15 +5679,15 @@
         <v>24</v>
       </c>
       <c r="B33" s="40">
-        <v>0</v>
-      </c>
-      <c r="C33" s="39" t="e">
+        <v>231</v>
+      </c>
+      <c r="C33" s="39">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D33" s="39" t="e">
+        <v>0.98701298701298701</v>
+      </c>
+      <c r="D33" s="39">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.2987012987012986E-2</v>
       </c>
       <c r="E33" s="49">
         <v>0.9</v>
@@ -5733,32 +5740,29 @@
       </c>
       <c r="B36" s="51">
         <f>SUM(B24:B35)</f>
-        <v>1660</v>
-      </c>
-      <c r="C36" s="52">
-        <f>D20+F20</f>
-        <v>0.97650602409638554</v>
-      </c>
-      <c r="D36" s="52">
-        <f>I20</f>
-        <v>2.3493975903614458E-2</v>
-      </c>
-      <c r="E36" s="67">
-        <f>J20</f>
-        <v>1</v>
-      </c>
+        <v>1891</v>
+      </c>
+      <c r="C36" s="52" t="e">
+        <f>SUM(C24:C35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D36" s="53" t="e">
+        <f t="shared" ref="D36" si="8">SUM(D24:D35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="54"/>
       <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="64"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="66"/>
     </row>
     <row r="39" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
@@ -5786,21 +5790,21 @@
       <c r="A40" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="53">
+      <c r="B40" s="55">
         <v>191</v>
       </c>
-      <c r="C40" s="53">
+      <c r="C40" s="55">
         <v>0</v>
       </c>
-      <c r="D40" s="54">
+      <c r="D40" s="56">
         <f>(((B40-C40)*100)/B40)/100</f>
         <v>1</v>
       </c>
-      <c r="E40" s="54">
+      <c r="E40" s="56">
         <f>C40/B40</f>
         <v>0</v>
       </c>
-      <c r="F40" s="55">
+      <c r="F40" s="57">
         <v>0.9</v>
       </c>
       <c r="G40" s="11"/>
@@ -5809,22 +5813,22 @@
       <c r="A41" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="53">
-        <f t="shared" ref="B41:B51" si="8">B9</f>
+      <c r="B41" s="55">
+        <f t="shared" ref="B41:B51" si="9">B9</f>
         <v>147</v>
       </c>
-      <c r="C41" s="53">
+      <c r="C41" s="55">
         <v>0</v>
       </c>
-      <c r="D41" s="54">
-        <f t="shared" ref="D41:D51" si="9">(((B41-C41)*100)/B41)/100</f>
+      <c r="D41" s="56">
+        <f t="shared" ref="D41:D51" si="10">(((B41-C41)*100)/B41)/100</f>
         <v>1</v>
       </c>
-      <c r="E41" s="54">
-        <f t="shared" ref="E41:E51" si="10">C41/B41</f>
+      <c r="E41" s="56">
+        <f t="shared" ref="E41:E51" si="11">C41/B41</f>
         <v>0</v>
       </c>
-      <c r="F41" s="55">
+      <c r="F41" s="57">
         <v>0.9</v>
       </c>
       <c r="G41" s="12"/>
@@ -5833,22 +5837,22 @@
       <c r="A42" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="53">
-        <f t="shared" si="8"/>
+      <c r="B42" s="55">
+        <f t="shared" si="9"/>
         <v>149</v>
       </c>
-      <c r="C42" s="53">
+      <c r="C42" s="55">
         <v>0</v>
       </c>
-      <c r="D42" s="54">
-        <f t="shared" si="9"/>
+      <c r="D42" s="56">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="E42" s="54">
-        <f t="shared" si="10"/>
+      <c r="E42" s="56">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F42" s="55">
+      <c r="F42" s="57">
         <v>0.9</v>
       </c>
     </row>
@@ -5856,22 +5860,22 @@
       <c r="A43" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="53">
-        <f t="shared" si="8"/>
+      <c r="B43" s="55">
+        <f t="shared" si="9"/>
         <v>149</v>
       </c>
-      <c r="C43" s="53">
+      <c r="C43" s="55">
         <v>0</v>
       </c>
-      <c r="D43" s="54">
-        <f t="shared" si="9"/>
+      <c r="D43" s="56">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="E43" s="54">
-        <f t="shared" si="10"/>
+      <c r="E43" s="56">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F43" s="55">
+      <c r="F43" s="57">
         <v>0.9</v>
       </c>
       <c r="K43" s="4" t="s">
@@ -5882,22 +5886,22 @@
       <c r="A44" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="53">
-        <f t="shared" si="8"/>
+      <c r="B44" s="55">
+        <f t="shared" si="9"/>
         <v>265</v>
       </c>
-      <c r="C44" s="53">
+      <c r="C44" s="55">
         <v>0</v>
       </c>
-      <c r="D44" s="54">
-        <f t="shared" si="9"/>
+      <c r="D44" s="56">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="E44" s="54">
-        <f t="shared" si="10"/>
+      <c r="E44" s="56">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F44" s="55">
+      <c r="F44" s="57">
         <v>0.9</v>
       </c>
     </row>
@@ -5905,22 +5909,22 @@
       <c r="A45" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="53">
-        <f t="shared" si="8"/>
+      <c r="B45" s="55">
+        <f t="shared" si="9"/>
         <v>167</v>
       </c>
-      <c r="C45" s="53">
+      <c r="C45" s="55">
         <v>0</v>
       </c>
-      <c r="D45" s="54">
-        <f t="shared" si="9"/>
+      <c r="D45" s="56">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="E45" s="54">
-        <f t="shared" si="10"/>
+      <c r="E45" s="56">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F45" s="55">
+      <c r="F45" s="57">
         <v>0.9</v>
       </c>
       <c r="G45" s="13"/>
@@ -5929,22 +5933,22 @@
       <c r="A46" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="53">
-        <f t="shared" si="8"/>
+      <c r="B46" s="55">
+        <f t="shared" si="9"/>
         <v>192</v>
       </c>
-      <c r="C46" s="53">
+      <c r="C46" s="55">
         <v>0</v>
       </c>
-      <c r="D46" s="54">
-        <f t="shared" si="9"/>
+      <c r="D46" s="56">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="E46" s="54">
-        <f t="shared" si="10"/>
+      <c r="E46" s="56">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F46" s="55">
+      <c r="F46" s="57">
         <v>0.9</v>
       </c>
       <c r="G46" s="14"/>
@@ -5953,22 +5957,22 @@
       <c r="A47" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="53">
+      <c r="B47" s="55">
         <f>B15</f>
         <v>175</v>
       </c>
-      <c r="C47" s="53">
+      <c r="C47" s="55">
         <v>0</v>
       </c>
-      <c r="D47" s="54">
-        <f t="shared" si="9"/>
+      <c r="D47" s="56">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="E47" s="54">
-        <f t="shared" si="10"/>
+      <c r="E47" s="56">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F47" s="55">
+      <c r="F47" s="57">
         <v>0.9</v>
       </c>
       <c r="G47" s="14"/>
@@ -5977,22 +5981,22 @@
       <c r="A48" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="53">
-        <f t="shared" si="8"/>
+      <c r="B48" s="55">
+        <f t="shared" si="9"/>
         <v>225</v>
       </c>
-      <c r="C48" s="53">
+      <c r="C48" s="55">
         <v>0</v>
       </c>
-      <c r="D48" s="54">
-        <f t="shared" si="9"/>
+      <c r="D48" s="56">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="E48" s="54">
-        <f t="shared" si="10"/>
+      <c r="E48" s="56">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F48" s="55">
+      <c r="F48" s="57">
         <v>0.9</v>
       </c>
       <c r="G48" s="13"/>
@@ -6001,21 +6005,21 @@
       <c r="A49" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="53">
+      <c r="B49" s="55">
+        <v>231</v>
+      </c>
+      <c r="C49" s="55">
         <v>0</v>
       </c>
-      <c r="C49" s="53">
+      <c r="D49" s="56">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E49" s="56">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D49" s="54" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E49" s="54" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F49" s="55">
+      <c r="F49" s="57">
         <v>0.9</v>
       </c>
       <c r="G49" s="14"/>
@@ -6024,22 +6028,22 @@
       <c r="A50" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="53">
-        <f t="shared" si="8"/>
+      <c r="B50" s="55">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="C50" s="53">
+      <c r="C50" s="55">
         <v>0</v>
       </c>
-      <c r="D50" s="54" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E50" s="54" t="e">
+      <c r="D50" s="56" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="55">
+      <c r="E50" s="56" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F50" s="57">
         <v>0.9</v>
       </c>
       <c r="G50" s="14"/>
@@ -6049,22 +6053,22 @@
       <c r="A51" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="53">
-        <f t="shared" si="8"/>
+      <c r="B51" s="55">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="C51" s="53">
+      <c r="C51" s="55">
         <v>0</v>
       </c>
-      <c r="D51" s="54" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E51" s="54" t="e">
+      <c r="D51" s="56" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F51" s="55">
+      <c r="E51" s="56" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F51" s="57">
         <v>0.9</v>
       </c>
       <c r="L51" s="9"/>
@@ -6075,21 +6079,21 @@
       </c>
       <c r="B52" s="51">
         <f>SUM(B40:B51)</f>
-        <v>1660</v>
-      </c>
-      <c r="C52" s="56">
+        <v>1891</v>
+      </c>
+      <c r="C52" s="58">
         <f>SUM(C40:C51)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="57">
+      <c r="D52" s="59">
         <f>(((B52-C52)*100)/B52)/100</f>
         <v>1</v>
       </c>
-      <c r="E52" s="57">
+      <c r="E52" s="59">
         <f>C52/B52</f>
         <v>0</v>
       </c>
-      <c r="F52" s="58">
+      <c r="F52" s="60">
         <v>1</v>
       </c>
     </row>
@@ -6098,20 +6102,20 @@
     </row>
     <row r="54" spans="1:16" s="19" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
-      <c r="B54" s="65" t="s">
+      <c r="B54" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="65"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="67"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P61" s="16"/>

--- a/FQ 9.1-001-01 Indicadores da Qualidade 2023.xlsx
+++ b/FQ 9.1-001-01 Indicadores da Qualidade 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\5 - ELOHIM\AVALIAÇÃO DE FORNECEDOR\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2680BEA4-8653-43C3-BAF2-4A451196E6A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B1C6F3-EF99-4131-AA99-24618D89AA22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -860,6 +860,12 @@
     <xf numFmtId="9" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -877,12 +883,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1730,7 +1730,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -2903,7 +2903,7 @@
                   <c:v>0.98701298701298701</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -4072,8 +4072,8 @@
   </sheetPr>
   <dimension ref="A1:IV122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4092,554 +4092,554 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
     </row>
     <row r="2" spans="1:256" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="68"/>
-      <c r="AS2" s="68"/>
-      <c r="AT2" s="68"/>
-      <c r="AU2" s="68"/>
-      <c r="AV2" s="68"/>
-      <c r="AW2" s="68"/>
-      <c r="AX2" s="68"/>
-      <c r="AY2" s="68"/>
-      <c r="AZ2" s="68"/>
-      <c r="BA2" s="68"/>
-      <c r="BB2" s="68"/>
-      <c r="BC2" s="68"/>
-      <c r="BD2" s="68"/>
-      <c r="BE2" s="68"/>
-      <c r="BF2" s="68"/>
-      <c r="BG2" s="68"/>
-      <c r="BH2" s="68"/>
-      <c r="BI2" s="68"/>
-      <c r="BJ2" s="68"/>
-      <c r="BK2" s="68"/>
-      <c r="BL2" s="68"/>
-      <c r="BM2" s="68"/>
-      <c r="BN2" s="68"/>
-      <c r="BO2" s="68"/>
-      <c r="BP2" s="68"/>
-      <c r="BQ2" s="68"/>
-      <c r="BR2" s="68"/>
-      <c r="BS2" s="68"/>
-      <c r="BT2" s="68"/>
-      <c r="BU2" s="68"/>
-      <c r="BV2" s="68"/>
-      <c r="BW2" s="68"/>
-      <c r="BX2" s="68"/>
-      <c r="BY2" s="68"/>
-      <c r="BZ2" s="68"/>
-      <c r="CA2" s="68"/>
-      <c r="CB2" s="68"/>
-      <c r="CC2" s="68"/>
-      <c r="CD2" s="68"/>
-      <c r="CE2" s="68"/>
-      <c r="CF2" s="68"/>
-      <c r="CG2" s="68"/>
-      <c r="CH2" s="68"/>
-      <c r="CI2" s="68"/>
-      <c r="CJ2" s="68"/>
-      <c r="CK2" s="68"/>
-      <c r="CL2" s="68"/>
-      <c r="CM2" s="68"/>
-      <c r="CN2" s="68"/>
-      <c r="CO2" s="68"/>
-      <c r="CP2" s="68"/>
-      <c r="CQ2" s="68"/>
-      <c r="CR2" s="68"/>
-      <c r="CS2" s="68"/>
-      <c r="CT2" s="68"/>
-      <c r="CU2" s="68"/>
-      <c r="CV2" s="68"/>
-      <c r="CW2" s="68"/>
-      <c r="CX2" s="68"/>
-      <c r="CY2" s="68"/>
-      <c r="CZ2" s="68"/>
-      <c r="DA2" s="68"/>
-      <c r="DB2" s="68"/>
-      <c r="DC2" s="68"/>
-      <c r="DD2" s="68"/>
-      <c r="DE2" s="68"/>
-      <c r="DF2" s="68"/>
-      <c r="DG2" s="68"/>
-      <c r="DH2" s="68"/>
-      <c r="DI2" s="68"/>
-      <c r="DJ2" s="68"/>
-      <c r="DK2" s="68"/>
-      <c r="DL2" s="68"/>
-      <c r="DM2" s="68"/>
-      <c r="DN2" s="68"/>
-      <c r="DO2" s="68"/>
-      <c r="DP2" s="68"/>
-      <c r="DQ2" s="68"/>
-      <c r="DR2" s="68"/>
-      <c r="DS2" s="68"/>
-      <c r="DT2" s="68"/>
-      <c r="DU2" s="68"/>
-      <c r="DV2" s="68"/>
-      <c r="DW2" s="68"/>
-      <c r="DX2" s="68"/>
-      <c r="DY2" s="68"/>
-      <c r="DZ2" s="68"/>
-      <c r="EA2" s="68"/>
-      <c r="EB2" s="68"/>
-      <c r="EC2" s="68"/>
-      <c r="ED2" s="68"/>
-      <c r="EE2" s="68"/>
-      <c r="EF2" s="68"/>
-      <c r="EG2" s="68"/>
-      <c r="EH2" s="68"/>
-      <c r="EI2" s="68"/>
-      <c r="EJ2" s="68"/>
-      <c r="EK2" s="68"/>
-      <c r="EL2" s="68"/>
-      <c r="EM2" s="68"/>
-      <c r="EN2" s="68"/>
-      <c r="EO2" s="68"/>
-      <c r="EP2" s="68"/>
-      <c r="EQ2" s="68"/>
-      <c r="ER2" s="68"/>
-      <c r="ES2" s="68"/>
-      <c r="ET2" s="68"/>
-      <c r="EU2" s="68"/>
-      <c r="EV2" s="68"/>
-      <c r="EW2" s="68"/>
-      <c r="EX2" s="68"/>
-      <c r="EY2" s="68"/>
-      <c r="EZ2" s="68"/>
-      <c r="FA2" s="68"/>
-      <c r="FB2" s="68"/>
-      <c r="FC2" s="68"/>
-      <c r="FD2" s="68"/>
-      <c r="FE2" s="68"/>
-      <c r="FF2" s="68"/>
-      <c r="FG2" s="68"/>
-      <c r="FH2" s="68"/>
-      <c r="FI2" s="68"/>
-      <c r="FJ2" s="68"/>
-      <c r="FK2" s="68"/>
-      <c r="FL2" s="68"/>
-      <c r="FM2" s="68"/>
-      <c r="FN2" s="68"/>
-      <c r="FO2" s="68"/>
-      <c r="FP2" s="68"/>
-      <c r="FQ2" s="68"/>
-      <c r="FR2" s="68"/>
-      <c r="FS2" s="68"/>
-      <c r="FT2" s="68"/>
-      <c r="FU2" s="68"/>
-      <c r="FV2" s="68"/>
-      <c r="FW2" s="68"/>
-      <c r="FX2" s="68"/>
-      <c r="FY2" s="68"/>
-      <c r="FZ2" s="68"/>
-      <c r="GA2" s="68"/>
-      <c r="GB2" s="68"/>
-      <c r="GC2" s="68"/>
-      <c r="GD2" s="68"/>
-      <c r="GE2" s="68"/>
-      <c r="GF2" s="68"/>
-      <c r="GG2" s="68"/>
-      <c r="GH2" s="68"/>
-      <c r="GI2" s="68"/>
-      <c r="GJ2" s="68"/>
-      <c r="GK2" s="68"/>
-      <c r="GL2" s="68"/>
-      <c r="GM2" s="68"/>
-      <c r="GN2" s="68"/>
-      <c r="GO2" s="68"/>
-      <c r="GP2" s="68"/>
-      <c r="GQ2" s="68"/>
-      <c r="GR2" s="68"/>
-      <c r="GS2" s="68"/>
-      <c r="GT2" s="68"/>
-      <c r="GU2" s="68"/>
-      <c r="GV2" s="68"/>
-      <c r="GW2" s="68"/>
-      <c r="GX2" s="68"/>
-      <c r="GY2" s="68"/>
-      <c r="GZ2" s="68"/>
-      <c r="HA2" s="68"/>
-      <c r="HB2" s="68"/>
-      <c r="HC2" s="68"/>
-      <c r="HD2" s="68"/>
-      <c r="HE2" s="68"/>
-      <c r="HF2" s="68"/>
-      <c r="HG2" s="68"/>
-      <c r="HH2" s="68"/>
-      <c r="HI2" s="68"/>
-      <c r="HJ2" s="68"/>
-      <c r="HK2" s="68"/>
-      <c r="HL2" s="68"/>
-      <c r="HM2" s="68"/>
-      <c r="HN2" s="68"/>
-      <c r="HO2" s="68"/>
-      <c r="HP2" s="68"/>
-      <c r="HQ2" s="68"/>
-      <c r="HR2" s="68"/>
-      <c r="HS2" s="68"/>
-      <c r="HT2" s="68"/>
-      <c r="HU2" s="68"/>
-      <c r="HV2" s="68"/>
-      <c r="HW2" s="68"/>
-      <c r="HX2" s="68"/>
-      <c r="HY2" s="68"/>
-      <c r="HZ2" s="68"/>
-      <c r="IA2" s="68"/>
-      <c r="IB2" s="68"/>
-      <c r="IC2" s="68"/>
-      <c r="ID2" s="68"/>
-      <c r="IE2" s="68"/>
-      <c r="IF2" s="68"/>
-      <c r="IG2" s="68"/>
-      <c r="IH2" s="68"/>
-      <c r="II2" s="68"/>
-      <c r="IJ2" s="68"/>
-      <c r="IK2" s="68"/>
-      <c r="IL2" s="68"/>
-      <c r="IM2" s="68"/>
-      <c r="IN2" s="68"/>
-      <c r="IO2" s="68"/>
-      <c r="IP2" s="68"/>
-      <c r="IQ2" s="68"/>
-      <c r="IR2" s="68"/>
-      <c r="IS2" s="68"/>
-      <c r="IT2" s="68"/>
-      <c r="IU2" s="68"/>
-      <c r="IV2" s="68"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="61"/>
+      <c r="BE2" s="61"/>
+      <c r="BF2" s="61"/>
+      <c r="BG2" s="61"/>
+      <c r="BH2" s="61"/>
+      <c r="BI2" s="61"/>
+      <c r="BJ2" s="61"/>
+      <c r="BK2" s="61"/>
+      <c r="BL2" s="61"/>
+      <c r="BM2" s="61"/>
+      <c r="BN2" s="61"/>
+      <c r="BO2" s="61"/>
+      <c r="BP2" s="61"/>
+      <c r="BQ2" s="61"/>
+      <c r="BR2" s="61"/>
+      <c r="BS2" s="61"/>
+      <c r="BT2" s="61"/>
+      <c r="BU2" s="61"/>
+      <c r="BV2" s="61"/>
+      <c r="BW2" s="61"/>
+      <c r="BX2" s="61"/>
+      <c r="BY2" s="61"/>
+      <c r="BZ2" s="61"/>
+      <c r="CA2" s="61"/>
+      <c r="CB2" s="61"/>
+      <c r="CC2" s="61"/>
+      <c r="CD2" s="61"/>
+      <c r="CE2" s="61"/>
+      <c r="CF2" s="61"/>
+      <c r="CG2" s="61"/>
+      <c r="CH2" s="61"/>
+      <c r="CI2" s="61"/>
+      <c r="CJ2" s="61"/>
+      <c r="CK2" s="61"/>
+      <c r="CL2" s="61"/>
+      <c r="CM2" s="61"/>
+      <c r="CN2" s="61"/>
+      <c r="CO2" s="61"/>
+      <c r="CP2" s="61"/>
+      <c r="CQ2" s="61"/>
+      <c r="CR2" s="61"/>
+      <c r="CS2" s="61"/>
+      <c r="CT2" s="61"/>
+      <c r="CU2" s="61"/>
+      <c r="CV2" s="61"/>
+      <c r="CW2" s="61"/>
+      <c r="CX2" s="61"/>
+      <c r="CY2" s="61"/>
+      <c r="CZ2" s="61"/>
+      <c r="DA2" s="61"/>
+      <c r="DB2" s="61"/>
+      <c r="DC2" s="61"/>
+      <c r="DD2" s="61"/>
+      <c r="DE2" s="61"/>
+      <c r="DF2" s="61"/>
+      <c r="DG2" s="61"/>
+      <c r="DH2" s="61"/>
+      <c r="DI2" s="61"/>
+      <c r="DJ2" s="61"/>
+      <c r="DK2" s="61"/>
+      <c r="DL2" s="61"/>
+      <c r="DM2" s="61"/>
+      <c r="DN2" s="61"/>
+      <c r="DO2" s="61"/>
+      <c r="DP2" s="61"/>
+      <c r="DQ2" s="61"/>
+      <c r="DR2" s="61"/>
+      <c r="DS2" s="61"/>
+      <c r="DT2" s="61"/>
+      <c r="DU2" s="61"/>
+      <c r="DV2" s="61"/>
+      <c r="DW2" s="61"/>
+      <c r="DX2" s="61"/>
+      <c r="DY2" s="61"/>
+      <c r="DZ2" s="61"/>
+      <c r="EA2" s="61"/>
+      <c r="EB2" s="61"/>
+      <c r="EC2" s="61"/>
+      <c r="ED2" s="61"/>
+      <c r="EE2" s="61"/>
+      <c r="EF2" s="61"/>
+      <c r="EG2" s="61"/>
+      <c r="EH2" s="61"/>
+      <c r="EI2" s="61"/>
+      <c r="EJ2" s="61"/>
+      <c r="EK2" s="61"/>
+      <c r="EL2" s="61"/>
+      <c r="EM2" s="61"/>
+      <c r="EN2" s="61"/>
+      <c r="EO2" s="61"/>
+      <c r="EP2" s="61"/>
+      <c r="EQ2" s="61"/>
+      <c r="ER2" s="61"/>
+      <c r="ES2" s="61"/>
+      <c r="ET2" s="61"/>
+      <c r="EU2" s="61"/>
+      <c r="EV2" s="61"/>
+      <c r="EW2" s="61"/>
+      <c r="EX2" s="61"/>
+      <c r="EY2" s="61"/>
+      <c r="EZ2" s="61"/>
+      <c r="FA2" s="61"/>
+      <c r="FB2" s="61"/>
+      <c r="FC2" s="61"/>
+      <c r="FD2" s="61"/>
+      <c r="FE2" s="61"/>
+      <c r="FF2" s="61"/>
+      <c r="FG2" s="61"/>
+      <c r="FH2" s="61"/>
+      <c r="FI2" s="61"/>
+      <c r="FJ2" s="61"/>
+      <c r="FK2" s="61"/>
+      <c r="FL2" s="61"/>
+      <c r="FM2" s="61"/>
+      <c r="FN2" s="61"/>
+      <c r="FO2" s="61"/>
+      <c r="FP2" s="61"/>
+      <c r="FQ2" s="61"/>
+      <c r="FR2" s="61"/>
+      <c r="FS2" s="61"/>
+      <c r="FT2" s="61"/>
+      <c r="FU2" s="61"/>
+      <c r="FV2" s="61"/>
+      <c r="FW2" s="61"/>
+      <c r="FX2" s="61"/>
+      <c r="FY2" s="61"/>
+      <c r="FZ2" s="61"/>
+      <c r="GA2" s="61"/>
+      <c r="GB2" s="61"/>
+      <c r="GC2" s="61"/>
+      <c r="GD2" s="61"/>
+      <c r="GE2" s="61"/>
+      <c r="GF2" s="61"/>
+      <c r="GG2" s="61"/>
+      <c r="GH2" s="61"/>
+      <c r="GI2" s="61"/>
+      <c r="GJ2" s="61"/>
+      <c r="GK2" s="61"/>
+      <c r="GL2" s="61"/>
+      <c r="GM2" s="61"/>
+      <c r="GN2" s="61"/>
+      <c r="GO2" s="61"/>
+      <c r="GP2" s="61"/>
+      <c r="GQ2" s="61"/>
+      <c r="GR2" s="61"/>
+      <c r="GS2" s="61"/>
+      <c r="GT2" s="61"/>
+      <c r="GU2" s="61"/>
+      <c r="GV2" s="61"/>
+      <c r="GW2" s="61"/>
+      <c r="GX2" s="61"/>
+      <c r="GY2" s="61"/>
+      <c r="GZ2" s="61"/>
+      <c r="HA2" s="61"/>
+      <c r="HB2" s="61"/>
+      <c r="HC2" s="61"/>
+      <c r="HD2" s="61"/>
+      <c r="HE2" s="61"/>
+      <c r="HF2" s="61"/>
+      <c r="HG2" s="61"/>
+      <c r="HH2" s="61"/>
+      <c r="HI2" s="61"/>
+      <c r="HJ2" s="61"/>
+      <c r="HK2" s="61"/>
+      <c r="HL2" s="61"/>
+      <c r="HM2" s="61"/>
+      <c r="HN2" s="61"/>
+      <c r="HO2" s="61"/>
+      <c r="HP2" s="61"/>
+      <c r="HQ2" s="61"/>
+      <c r="HR2" s="61"/>
+      <c r="HS2" s="61"/>
+      <c r="HT2" s="61"/>
+      <c r="HU2" s="61"/>
+      <c r="HV2" s="61"/>
+      <c r="HW2" s="61"/>
+      <c r="HX2" s="61"/>
+      <c r="HY2" s="61"/>
+      <c r="HZ2" s="61"/>
+      <c r="IA2" s="61"/>
+      <c r="IB2" s="61"/>
+      <c r="IC2" s="61"/>
+      <c r="ID2" s="61"/>
+      <c r="IE2" s="61"/>
+      <c r="IF2" s="61"/>
+      <c r="IG2" s="61"/>
+      <c r="IH2" s="61"/>
+      <c r="II2" s="61"/>
+      <c r="IJ2" s="61"/>
+      <c r="IK2" s="61"/>
+      <c r="IL2" s="61"/>
+      <c r="IM2" s="61"/>
+      <c r="IN2" s="61"/>
+      <c r="IO2" s="61"/>
+      <c r="IP2" s="61"/>
+      <c r="IQ2" s="61"/>
+      <c r="IR2" s="61"/>
+      <c r="IS2" s="61"/>
+      <c r="IT2" s="61"/>
+      <c r="IU2" s="61"/>
+      <c r="IV2" s="61"/>
     </row>
     <row r="3" spans="1:256" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:256" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="68"/>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="68"/>
-      <c r="AF4" s="68"/>
-      <c r="AG4" s="68"/>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="68"/>
-      <c r="AK4" s="68"/>
-      <c r="AL4" s="68"/>
-      <c r="AM4" s="68"/>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="68"/>
-      <c r="AP4" s="68"/>
-      <c r="AQ4" s="68"/>
-      <c r="AR4" s="68"/>
-      <c r="AS4" s="68"/>
-      <c r="AT4" s="68"/>
-      <c r="AU4" s="68"/>
-      <c r="AV4" s="68"/>
-      <c r="AW4" s="68"/>
-      <c r="AX4" s="68"/>
-      <c r="AY4" s="68"/>
-      <c r="AZ4" s="68"/>
-      <c r="BA4" s="68"/>
-      <c r="BB4" s="68"/>
-      <c r="BC4" s="68"/>
-      <c r="BD4" s="68"/>
-      <c r="BE4" s="68"/>
-      <c r="BF4" s="68"/>
-      <c r="BG4" s="68"/>
-      <c r="BH4" s="68"/>
-      <c r="BI4" s="68"/>
-      <c r="BJ4" s="68"/>
-      <c r="BK4" s="68"/>
-      <c r="BL4" s="68"/>
-      <c r="BM4" s="68"/>
-      <c r="BN4" s="68"/>
-      <c r="BO4" s="68"/>
-      <c r="BP4" s="68"/>
-      <c r="BQ4" s="68"/>
-      <c r="BR4" s="68"/>
-      <c r="BS4" s="68"/>
-      <c r="BT4" s="68"/>
-      <c r="BU4" s="68"/>
-      <c r="BV4" s="68"/>
-      <c r="BW4" s="68"/>
-      <c r="BX4" s="68"/>
-      <c r="BY4" s="68"/>
-      <c r="BZ4" s="68"/>
-      <c r="CA4" s="68"/>
-      <c r="CB4" s="68"/>
-      <c r="CC4" s="68"/>
-      <c r="CD4" s="68"/>
-      <c r="CE4" s="68"/>
-      <c r="CF4" s="68"/>
-      <c r="CG4" s="68"/>
-      <c r="CH4" s="68"/>
-      <c r="CI4" s="68"/>
-      <c r="CJ4" s="68"/>
-      <c r="CK4" s="68"/>
-      <c r="CL4" s="68"/>
-      <c r="CM4" s="68"/>
-      <c r="CN4" s="68"/>
-      <c r="CO4" s="68"/>
-      <c r="CP4" s="68"/>
-      <c r="CQ4" s="68"/>
-      <c r="CR4" s="68"/>
-      <c r="CS4" s="68"/>
-      <c r="CT4" s="68"/>
-      <c r="CU4" s="68"/>
-      <c r="CV4" s="68"/>
-      <c r="CW4" s="68"/>
-      <c r="CX4" s="68"/>
-      <c r="CY4" s="68"/>
-      <c r="CZ4" s="68"/>
-      <c r="DA4" s="68"/>
-      <c r="DB4" s="68"/>
-      <c r="DC4" s="68"/>
-      <c r="DD4" s="68"/>
-      <c r="DE4" s="68"/>
-      <c r="DF4" s="68"/>
-      <c r="DG4" s="68"/>
-      <c r="DH4" s="68"/>
-      <c r="DI4" s="68"/>
-      <c r="DJ4" s="68"/>
-      <c r="DK4" s="68"/>
-      <c r="DL4" s="68"/>
-      <c r="DM4" s="68"/>
-      <c r="DN4" s="68"/>
-      <c r="DO4" s="68"/>
-      <c r="DP4" s="68"/>
-      <c r="DQ4" s="68"/>
-      <c r="DR4" s="68"/>
-      <c r="DS4" s="68"/>
-      <c r="DT4" s="68"/>
-      <c r="DU4" s="68"/>
-      <c r="DV4" s="68"/>
-      <c r="DW4" s="68"/>
-      <c r="DX4" s="68"/>
-      <c r="DY4" s="68"/>
-      <c r="DZ4" s="68"/>
-      <c r="EA4" s="68"/>
-      <c r="EB4" s="68"/>
-      <c r="EC4" s="68"/>
-      <c r="ED4" s="68"/>
-      <c r="EE4" s="68"/>
-      <c r="EF4" s="68"/>
-      <c r="EG4" s="68"/>
-      <c r="EH4" s="68"/>
-      <c r="EI4" s="68"/>
-      <c r="EJ4" s="68"/>
-      <c r="EK4" s="68"/>
-      <c r="EL4" s="68"/>
-      <c r="EM4" s="68"/>
-      <c r="EN4" s="68"/>
-      <c r="EO4" s="68"/>
-      <c r="EP4" s="68"/>
-      <c r="EQ4" s="68"/>
-      <c r="ER4" s="68"/>
-      <c r="ES4" s="68"/>
-      <c r="ET4" s="68"/>
-      <c r="EU4" s="68"/>
-      <c r="EV4" s="68"/>
-      <c r="EW4" s="68"/>
-      <c r="EX4" s="68"/>
-      <c r="EY4" s="68"/>
-      <c r="EZ4" s="68"/>
-      <c r="FA4" s="68"/>
-      <c r="FB4" s="68"/>
-      <c r="FC4" s="68"/>
-      <c r="FD4" s="68"/>
-      <c r="FE4" s="68"/>
-      <c r="FF4" s="68"/>
-      <c r="FG4" s="68"/>
-      <c r="FH4" s="68"/>
-      <c r="FI4" s="68"/>
-      <c r="FJ4" s="68"/>
-      <c r="FK4" s="68"/>
-      <c r="FL4" s="68"/>
-      <c r="FM4" s="68"/>
-      <c r="FN4" s="68"/>
-      <c r="FO4" s="68"/>
-      <c r="FP4" s="68"/>
-      <c r="FQ4" s="68"/>
-      <c r="FR4" s="68"/>
-      <c r="FS4" s="68"/>
-      <c r="FT4" s="68"/>
-      <c r="FU4" s="68"/>
-      <c r="FV4" s="68"/>
-      <c r="FW4" s="68"/>
-      <c r="FX4" s="68"/>
-      <c r="FY4" s="68"/>
-      <c r="FZ4" s="68"/>
-      <c r="GA4" s="68"/>
-      <c r="GB4" s="68"/>
-      <c r="GC4" s="68"/>
-      <c r="GD4" s="68"/>
-      <c r="GE4" s="68"/>
-      <c r="GF4" s="68"/>
-      <c r="GG4" s="68"/>
-      <c r="GH4" s="68"/>
-      <c r="GI4" s="68"/>
-      <c r="GJ4" s="68"/>
-      <c r="GK4" s="68"/>
-      <c r="GL4" s="68"/>
-      <c r="GM4" s="68"/>
-      <c r="GN4" s="68"/>
-      <c r="GO4" s="68"/>
-      <c r="GP4" s="68"/>
-      <c r="GQ4" s="68"/>
-      <c r="GR4" s="68"/>
-      <c r="GS4" s="68"/>
-      <c r="GT4" s="68"/>
-      <c r="GU4" s="68"/>
-      <c r="GV4" s="68"/>
-      <c r="GW4" s="68"/>
-      <c r="GX4" s="68"/>
-      <c r="GY4" s="68"/>
-      <c r="GZ4" s="68"/>
-      <c r="HA4" s="68"/>
-      <c r="HB4" s="68"/>
-      <c r="HC4" s="68"/>
-      <c r="HD4" s="68"/>
-      <c r="HE4" s="68"/>
-      <c r="HF4" s="68"/>
-      <c r="HG4" s="68"/>
-      <c r="HH4" s="68"/>
-      <c r="HI4" s="68"/>
-      <c r="HJ4" s="68"/>
-      <c r="HK4" s="68"/>
-      <c r="HL4" s="68"/>
-      <c r="HM4" s="68"/>
-      <c r="HN4" s="68"/>
-      <c r="HO4" s="68"/>
-      <c r="HP4" s="68"/>
-      <c r="HQ4" s="68"/>
-      <c r="HR4" s="68"/>
-      <c r="HS4" s="68"/>
-      <c r="HT4" s="68"/>
-      <c r="HU4" s="68"/>
-      <c r="HV4" s="68"/>
-      <c r="HW4" s="68"/>
-      <c r="HX4" s="68"/>
-      <c r="HY4" s="68"/>
-      <c r="HZ4" s="68"/>
-      <c r="IA4" s="68"/>
-      <c r="IB4" s="68"/>
-      <c r="IC4" s="68"/>
-      <c r="ID4" s="68"/>
-      <c r="IE4" s="68"/>
-      <c r="IF4" s="68"/>
-      <c r="IG4" s="68"/>
-      <c r="IH4" s="68"/>
-      <c r="II4" s="68"/>
-      <c r="IJ4" s="68"/>
-      <c r="IK4" s="68"/>
-      <c r="IL4" s="68"/>
-      <c r="IM4" s="68"/>
-      <c r="IN4" s="68"/>
-      <c r="IO4" s="68"/>
-      <c r="IP4" s="68"/>
-      <c r="IQ4" s="68"/>
-      <c r="IR4" s="68"/>
-      <c r="IS4" s="68"/>
-      <c r="IT4" s="68"/>
-      <c r="IU4" s="68"/>
-      <c r="IV4" s="68"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="61"/>
+      <c r="AK4" s="61"/>
+      <c r="AL4" s="61"/>
+      <c r="AM4" s="61"/>
+      <c r="AN4" s="61"/>
+      <c r="AO4" s="61"/>
+      <c r="AP4" s="61"/>
+      <c r="AQ4" s="61"/>
+      <c r="AR4" s="61"/>
+      <c r="AS4" s="61"/>
+      <c r="AT4" s="61"/>
+      <c r="AU4" s="61"/>
+      <c r="AV4" s="61"/>
+      <c r="AW4" s="61"/>
+      <c r="AX4" s="61"/>
+      <c r="AY4" s="61"/>
+      <c r="AZ4" s="61"/>
+      <c r="BA4" s="61"/>
+      <c r="BB4" s="61"/>
+      <c r="BC4" s="61"/>
+      <c r="BD4" s="61"/>
+      <c r="BE4" s="61"/>
+      <c r="BF4" s="61"/>
+      <c r="BG4" s="61"/>
+      <c r="BH4" s="61"/>
+      <c r="BI4" s="61"/>
+      <c r="BJ4" s="61"/>
+      <c r="BK4" s="61"/>
+      <c r="BL4" s="61"/>
+      <c r="BM4" s="61"/>
+      <c r="BN4" s="61"/>
+      <c r="BO4" s="61"/>
+      <c r="BP4" s="61"/>
+      <c r="BQ4" s="61"/>
+      <c r="BR4" s="61"/>
+      <c r="BS4" s="61"/>
+      <c r="BT4" s="61"/>
+      <c r="BU4" s="61"/>
+      <c r="BV4" s="61"/>
+      <c r="BW4" s="61"/>
+      <c r="BX4" s="61"/>
+      <c r="BY4" s="61"/>
+      <c r="BZ4" s="61"/>
+      <c r="CA4" s="61"/>
+      <c r="CB4" s="61"/>
+      <c r="CC4" s="61"/>
+      <c r="CD4" s="61"/>
+      <c r="CE4" s="61"/>
+      <c r="CF4" s="61"/>
+      <c r="CG4" s="61"/>
+      <c r="CH4" s="61"/>
+      <c r="CI4" s="61"/>
+      <c r="CJ4" s="61"/>
+      <c r="CK4" s="61"/>
+      <c r="CL4" s="61"/>
+      <c r="CM4" s="61"/>
+      <c r="CN4" s="61"/>
+      <c r="CO4" s="61"/>
+      <c r="CP4" s="61"/>
+      <c r="CQ4" s="61"/>
+      <c r="CR4" s="61"/>
+      <c r="CS4" s="61"/>
+      <c r="CT4" s="61"/>
+      <c r="CU4" s="61"/>
+      <c r="CV4" s="61"/>
+      <c r="CW4" s="61"/>
+      <c r="CX4" s="61"/>
+      <c r="CY4" s="61"/>
+      <c r="CZ4" s="61"/>
+      <c r="DA4" s="61"/>
+      <c r="DB4" s="61"/>
+      <c r="DC4" s="61"/>
+      <c r="DD4" s="61"/>
+      <c r="DE4" s="61"/>
+      <c r="DF4" s="61"/>
+      <c r="DG4" s="61"/>
+      <c r="DH4" s="61"/>
+      <c r="DI4" s="61"/>
+      <c r="DJ4" s="61"/>
+      <c r="DK4" s="61"/>
+      <c r="DL4" s="61"/>
+      <c r="DM4" s="61"/>
+      <c r="DN4" s="61"/>
+      <c r="DO4" s="61"/>
+      <c r="DP4" s="61"/>
+      <c r="DQ4" s="61"/>
+      <c r="DR4" s="61"/>
+      <c r="DS4" s="61"/>
+      <c r="DT4" s="61"/>
+      <c r="DU4" s="61"/>
+      <c r="DV4" s="61"/>
+      <c r="DW4" s="61"/>
+      <c r="DX4" s="61"/>
+      <c r="DY4" s="61"/>
+      <c r="DZ4" s="61"/>
+      <c r="EA4" s="61"/>
+      <c r="EB4" s="61"/>
+      <c r="EC4" s="61"/>
+      <c r="ED4" s="61"/>
+      <c r="EE4" s="61"/>
+      <c r="EF4" s="61"/>
+      <c r="EG4" s="61"/>
+      <c r="EH4" s="61"/>
+      <c r="EI4" s="61"/>
+      <c r="EJ4" s="61"/>
+      <c r="EK4" s="61"/>
+      <c r="EL4" s="61"/>
+      <c r="EM4" s="61"/>
+      <c r="EN4" s="61"/>
+      <c r="EO4" s="61"/>
+      <c r="EP4" s="61"/>
+      <c r="EQ4" s="61"/>
+      <c r="ER4" s="61"/>
+      <c r="ES4" s="61"/>
+      <c r="ET4" s="61"/>
+      <c r="EU4" s="61"/>
+      <c r="EV4" s="61"/>
+      <c r="EW4" s="61"/>
+      <c r="EX4" s="61"/>
+      <c r="EY4" s="61"/>
+      <c r="EZ4" s="61"/>
+      <c r="FA4" s="61"/>
+      <c r="FB4" s="61"/>
+      <c r="FC4" s="61"/>
+      <c r="FD4" s="61"/>
+      <c r="FE4" s="61"/>
+      <c r="FF4" s="61"/>
+      <c r="FG4" s="61"/>
+      <c r="FH4" s="61"/>
+      <c r="FI4" s="61"/>
+      <c r="FJ4" s="61"/>
+      <c r="FK4" s="61"/>
+      <c r="FL4" s="61"/>
+      <c r="FM4" s="61"/>
+      <c r="FN4" s="61"/>
+      <c r="FO4" s="61"/>
+      <c r="FP4" s="61"/>
+      <c r="FQ4" s="61"/>
+      <c r="FR4" s="61"/>
+      <c r="FS4" s="61"/>
+      <c r="FT4" s="61"/>
+      <c r="FU4" s="61"/>
+      <c r="FV4" s="61"/>
+      <c r="FW4" s="61"/>
+      <c r="FX4" s="61"/>
+      <c r="FY4" s="61"/>
+      <c r="FZ4" s="61"/>
+      <c r="GA4" s="61"/>
+      <c r="GB4" s="61"/>
+      <c r="GC4" s="61"/>
+      <c r="GD4" s="61"/>
+      <c r="GE4" s="61"/>
+      <c r="GF4" s="61"/>
+      <c r="GG4" s="61"/>
+      <c r="GH4" s="61"/>
+      <c r="GI4" s="61"/>
+      <c r="GJ4" s="61"/>
+      <c r="GK4" s="61"/>
+      <c r="GL4" s="61"/>
+      <c r="GM4" s="61"/>
+      <c r="GN4" s="61"/>
+      <c r="GO4" s="61"/>
+      <c r="GP4" s="61"/>
+      <c r="GQ4" s="61"/>
+      <c r="GR4" s="61"/>
+      <c r="GS4" s="61"/>
+      <c r="GT4" s="61"/>
+      <c r="GU4" s="61"/>
+      <c r="GV4" s="61"/>
+      <c r="GW4" s="61"/>
+      <c r="GX4" s="61"/>
+      <c r="GY4" s="61"/>
+      <c r="GZ4" s="61"/>
+      <c r="HA4" s="61"/>
+      <c r="HB4" s="61"/>
+      <c r="HC4" s="61"/>
+      <c r="HD4" s="61"/>
+      <c r="HE4" s="61"/>
+      <c r="HF4" s="61"/>
+      <c r="HG4" s="61"/>
+      <c r="HH4" s="61"/>
+      <c r="HI4" s="61"/>
+      <c r="HJ4" s="61"/>
+      <c r="HK4" s="61"/>
+      <c r="HL4" s="61"/>
+      <c r="HM4" s="61"/>
+      <c r="HN4" s="61"/>
+      <c r="HO4" s="61"/>
+      <c r="HP4" s="61"/>
+      <c r="HQ4" s="61"/>
+      <c r="HR4" s="61"/>
+      <c r="HS4" s="61"/>
+      <c r="HT4" s="61"/>
+      <c r="HU4" s="61"/>
+      <c r="HV4" s="61"/>
+      <c r="HW4" s="61"/>
+      <c r="HX4" s="61"/>
+      <c r="HY4" s="61"/>
+      <c r="HZ4" s="61"/>
+      <c r="IA4" s="61"/>
+      <c r="IB4" s="61"/>
+      <c r="IC4" s="61"/>
+      <c r="ID4" s="61"/>
+      <c r="IE4" s="61"/>
+      <c r="IF4" s="61"/>
+      <c r="IG4" s="61"/>
+      <c r="IH4" s="61"/>
+      <c r="II4" s="61"/>
+      <c r="IJ4" s="61"/>
+      <c r="IK4" s="61"/>
+      <c r="IL4" s="61"/>
+      <c r="IM4" s="61"/>
+      <c r="IN4" s="61"/>
+      <c r="IO4" s="61"/>
+      <c r="IP4" s="61"/>
+      <c r="IQ4" s="61"/>
+      <c r="IR4" s="61"/>
+      <c r="IS4" s="61"/>
+      <c r="IT4" s="61"/>
+      <c r="IU4" s="61"/>
+      <c r="IV4" s="61"/>
     </row>
     <row r="5" spans="1:256" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -4900,18 +4900,18 @@
       <c r="IV5" s="2"/>
     </row>
     <row r="6" spans="1:256" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
     </row>
     <row r="7" spans="1:256" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
@@ -5340,31 +5340,37 @@
       <c r="A18" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39" t="e">
+      <c r="B18" s="38">
+        <v>134</v>
+      </c>
+      <c r="C18" s="38">
+        <v>134</v>
+      </c>
+      <c r="D18" s="39">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="39" t="e">
+        <v>1</v>
+      </c>
+      <c r="E18" s="40">
+        <v>0</v>
+      </c>
+      <c r="F18" s="39">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="G18" s="39">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="H18" s="38">
         <v>0</v>
       </c>
-      <c r="I18" s="39" t="e">
+      <c r="I18" s="39">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="41" t="e">
+        <v>0</v>
+      </c>
+      <c r="J18" s="41">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="K18" s="18"/>
       <c r="L18" s="24"/>
@@ -5414,15 +5420,15 @@
       </c>
       <c r="B20" s="43">
         <f>SUM(B8:B19)</f>
-        <v>1891</v>
+        <v>2025</v>
       </c>
       <c r="C20" s="43">
         <f>SUM(C8:C19)</f>
-        <v>1849</v>
+        <v>1983</v>
       </c>
       <c r="D20" s="44">
         <f>C20/B20</f>
-        <v>0.97778952934955055</v>
+        <v>0.97925925925925927</v>
       </c>
       <c r="E20" s="45">
         <f>SUM(E8:E19)</f>
@@ -5434,7 +5440,7 @@
       </c>
       <c r="G20" s="44">
         <f t="shared" si="2"/>
-        <v>0.97778952934955055</v>
+        <v>0.97925925925925927</v>
       </c>
       <c r="H20" s="43">
         <f>SUM(H8:H19)</f>
@@ -5442,7 +5448,7 @@
       </c>
       <c r="I20" s="44">
         <f>H20/B20</f>
-        <v>2.2210470650449499E-2</v>
+        <v>2.074074074074074E-2</v>
       </c>
       <c r="J20" s="46">
         <f>G20+I20</f>
@@ -5464,13 +5470,13 @@
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="68"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:19" s="23" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5699,15 +5705,15 @@
         <v>25</v>
       </c>
       <c r="B34" s="40">
+        <v>134</v>
+      </c>
+      <c r="C34" s="39">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D34" s="39">
+        <f t="shared" si="7"/>
         <v>0</v>
-      </c>
-      <c r="C34" s="39" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D34" s="39" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="E34" s="49">
         <v>0.9</v>
@@ -5740,7 +5746,7 @@
       </c>
       <c r="B36" s="51">
         <f>SUM(B24:B35)</f>
-        <v>1891</v>
+        <v>2025</v>
       </c>
       <c r="C36" s="52" t="e">
         <f>SUM(C24:C35)</f>
@@ -5755,14 +5761,14 @@
     </row>
     <row r="37" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64" t="s">
+      <c r="A38" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="66"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="68"/>
     </row>
     <row r="39" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
@@ -6030,18 +6036,18 @@
       </c>
       <c r="B50" s="55">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="C50" s="55">
         <v>0</v>
       </c>
-      <c r="D50" s="56" t="e">
+      <c r="D50" s="56">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E50" s="56" t="e">
+        <v>1</v>
+      </c>
+      <c r="E50" s="56">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F50" s="57">
         <v>0.9</v>
@@ -6079,7 +6085,7 @@
       </c>
       <c r="B52" s="51">
         <f>SUM(B40:B51)</f>
-        <v>1891</v>
+        <v>2025</v>
       </c>
       <c r="C52" s="58">
         <f>SUM(C40:C51)</f>
@@ -6102,20 +6108,20 @@
     </row>
     <row r="54" spans="1:16" s="19" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P61" s="16"/>
@@ -6133,44 +6139,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="CK2:CU2"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="AS2:BC2"/>
-    <mergeCell ref="BD2:BN2"/>
-    <mergeCell ref="BO2:BY2"/>
-    <mergeCell ref="BZ2:CJ2"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="L2:V2"/>
-    <mergeCell ref="W2:AG2"/>
-    <mergeCell ref="AH2:AR2"/>
-    <mergeCell ref="L4:V4"/>
-    <mergeCell ref="W4:AG4"/>
-    <mergeCell ref="AH4:AR4"/>
-    <mergeCell ref="CV2:DF2"/>
-    <mergeCell ref="DG2:DQ2"/>
-    <mergeCell ref="DR2:EB2"/>
-    <mergeCell ref="EC2:EM2"/>
-    <mergeCell ref="EN2:EX2"/>
-    <mergeCell ref="HX2:IH2"/>
-    <mergeCell ref="II2:IS2"/>
-    <mergeCell ref="IT2:IV2"/>
-    <mergeCell ref="EY2:FI2"/>
-    <mergeCell ref="FJ2:FT2"/>
-    <mergeCell ref="FU2:GE2"/>
-    <mergeCell ref="GF2:GP2"/>
-    <mergeCell ref="GQ2:HA2"/>
-    <mergeCell ref="FJ4:FT4"/>
-    <mergeCell ref="FU4:GE4"/>
-    <mergeCell ref="GF4:GP4"/>
-    <mergeCell ref="HB2:HL2"/>
-    <mergeCell ref="HM2:HW2"/>
-    <mergeCell ref="DG4:DQ4"/>
-    <mergeCell ref="DR4:EB4"/>
-    <mergeCell ref="EC4:EM4"/>
-    <mergeCell ref="EN4:EX4"/>
-    <mergeCell ref="EY4:FI4"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A38:F38"/>
@@ -6187,6 +6155,44 @@
     <mergeCell ref="BZ4:CJ4"/>
     <mergeCell ref="CK4:CU4"/>
     <mergeCell ref="CV4:DF4"/>
+    <mergeCell ref="DG4:DQ4"/>
+    <mergeCell ref="DR4:EB4"/>
+    <mergeCell ref="EC4:EM4"/>
+    <mergeCell ref="EN4:EX4"/>
+    <mergeCell ref="EY4:FI4"/>
+    <mergeCell ref="FJ4:FT4"/>
+    <mergeCell ref="FU4:GE4"/>
+    <mergeCell ref="GF4:GP4"/>
+    <mergeCell ref="HB2:HL2"/>
+    <mergeCell ref="HM2:HW2"/>
+    <mergeCell ref="HX2:IH2"/>
+    <mergeCell ref="II2:IS2"/>
+    <mergeCell ref="IT2:IV2"/>
+    <mergeCell ref="EY2:FI2"/>
+    <mergeCell ref="FJ2:FT2"/>
+    <mergeCell ref="FU2:GE2"/>
+    <mergeCell ref="GF2:GP2"/>
+    <mergeCell ref="GQ2:HA2"/>
+    <mergeCell ref="CV2:DF2"/>
+    <mergeCell ref="DG2:DQ2"/>
+    <mergeCell ref="DR2:EB2"/>
+    <mergeCell ref="EC2:EM2"/>
+    <mergeCell ref="EN2:EX2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="CK2:CU2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="AS2:BC2"/>
+    <mergeCell ref="BD2:BN2"/>
+    <mergeCell ref="BO2:BY2"/>
+    <mergeCell ref="BZ2:CJ2"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="L2:V2"/>
+    <mergeCell ref="W2:AG2"/>
+    <mergeCell ref="AH2:AR2"/>
+    <mergeCell ref="L4:V4"/>
+    <mergeCell ref="W4:AG4"/>
+    <mergeCell ref="AH4:AR4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/FQ 9.1-001-01 Indicadores da Qualidade 2023.xlsx
+++ b/FQ 9.1-001-01 Indicadores da Qualidade 2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\5 - ELOHIM\AVALIAÇÃO DE FORNECEDOR\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\5 - ELOHIM\AVALIAÇÃO DE FORNECEDOR\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B1C6F3-EF99-4131-AA99-24618D89AA22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A852B9CB-72DB-4858-903C-76982C953B61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t>GRÁFICOS</t>
   </si>
   <si>
-    <t>Índice de Entrega Do Provedor Externo no Prazo - 2024</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>TABELA GERAL DO PROVEDOR EXTERNO</t>
+  </si>
+  <si>
+    <t>Índice de Entrega Do Provedor Externo no Prazo - 2025</t>
   </si>
 </sst>
 </file>
@@ -1706,31 +1706,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -2873,37 +2873,37 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.98952879581151831</c:v>
+                  <c:v>0.99333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95238095238095244</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97315436241610742</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97315436241610742</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97735849056603774</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.96571428571428575</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98222222222222233</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.98701298701298701</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -4072,8 +4072,8 @@
   </sheetPr>
   <dimension ref="A1:IV122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4093,7 +4093,7 @@
   <sheetData>
     <row r="1" spans="1:256" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -4108,7 +4108,7 @@
     </row>
     <row r="2" spans="1:256" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="61"/>
       <c r="C2" s="61"/>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="3" spans="1:256" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="4" spans="1:256" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="6" spans="1:256" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="64"/>
       <c r="C6" s="64"/>
@@ -4951,14 +4951,14 @@
         <v>15</v>
       </c>
       <c r="B8" s="33">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="C8" s="33">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="D8" s="34">
         <f>((C8*100)/B8)/100</f>
-        <v>0.98952879581151831</v>
+        <v>0.99333333333333329</v>
       </c>
       <c r="E8" s="35">
         <v>0</v>
@@ -4969,15 +4969,14 @@
       </c>
       <c r="G8" s="34">
         <f>D8+F8</f>
-        <v>0.98952879581151831</v>
+        <v>0.99333333333333329</v>
       </c>
       <c r="H8" s="33">
-        <f>B8-C8</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="34">
         <f>((H8*100)/B8)/100</f>
-        <v>1.0471204188481676E-2</v>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="J8" s="36">
         <f>G8+I8</f>
@@ -4990,14 +4989,14 @@
         <v>16</v>
       </c>
       <c r="B9" s="38">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="C9" s="38">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D9" s="39">
         <f t="shared" ref="D9:D19" si="0">((C9*100)/B9)/100</f>
-        <v>0.95238095238095244</v>
+        <v>1</v>
       </c>
       <c r="E9" s="40">
         <v>0</v>
@@ -5008,15 +5007,15 @@
       </c>
       <c r="G9" s="39">
         <f t="shared" ref="G9:G20" si="2">D9+F9</f>
-        <v>0.95238095238095244</v>
+        <v>1</v>
       </c>
       <c r="H9" s="38">
         <f t="shared" ref="H9:H17" si="3">B9-C9</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I9" s="39">
         <f t="shared" ref="I9:I19" si="4">((H9*100)/B9)/100</f>
-        <v>4.7619047619047616E-2</v>
+        <v>0</v>
       </c>
       <c r="J9" s="41">
         <f t="shared" ref="J9:J19" si="5">G9+I9</f>
@@ -5028,38 +5027,34 @@
       <c r="A10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="38">
-        <v>149</v>
-      </c>
-      <c r="C10" s="38">
-        <v>145</v>
-      </c>
-      <c r="D10" s="39">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39" t="e">
         <f t="shared" si="0"/>
-        <v>0.97315436241610742</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E10" s="40">
         <v>0</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="39" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="39" t="e">
         <f t="shared" si="2"/>
-        <v>0.97315436241610742</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H10" s="38">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="I10" s="39">
+        <v>0</v>
+      </c>
+      <c r="I10" s="39" t="e">
         <f t="shared" si="4"/>
-        <v>2.684563758389262E-2</v>
-      </c>
-      <c r="J10" s="41">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="41" t="e">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K10" s="18"/>
     </row>
@@ -5067,38 +5062,34 @@
       <c r="A11" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="38">
-        <v>149</v>
-      </c>
-      <c r="C11" s="38">
-        <v>145</v>
-      </c>
-      <c r="D11" s="39">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39" t="e">
         <f t="shared" si="0"/>
-        <v>0.97315436241610742</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E11" s="40">
         <v>0</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="39" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="39" t="e">
         <f t="shared" si="2"/>
-        <v>0.97315436241610742</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H11" s="38">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="I11" s="39">
+        <v>0</v>
+      </c>
+      <c r="I11" s="39" t="e">
         <f t="shared" si="4"/>
-        <v>2.684563758389262E-2</v>
-      </c>
-      <c r="J11" s="41">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="41" t="e">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K11" s="18"/>
     </row>
@@ -5106,38 +5097,34 @@
       <c r="A12" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="38">
-        <v>265</v>
-      </c>
-      <c r="C12" s="38">
-        <v>259</v>
-      </c>
-      <c r="D12" s="39">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39" t="e">
         <f t="shared" si="0"/>
-        <v>0.97735849056603774</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E12" s="40">
         <v>0</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="39" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="39" t="e">
         <f t="shared" si="2"/>
-        <v>0.97735849056603774</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H12" s="38">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="I12" s="39">
+        <v>0</v>
+      </c>
+      <c r="I12" s="39" t="e">
         <f t="shared" si="4"/>
-        <v>2.2641509433962263E-2</v>
-      </c>
-      <c r="J12" s="41">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="41" t="e">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K12" s="18"/>
     </row>
@@ -5145,38 +5132,34 @@
       <c r="A13" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="38">
-        <v>167</v>
-      </c>
-      <c r="C13" s="38">
-        <v>167</v>
-      </c>
-      <c r="D13" s="39">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E13" s="40">
         <v>0</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="39" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="39" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H13" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="39" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="41">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="41" t="e">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K13" s="18"/>
     </row>
@@ -5184,38 +5167,34 @@
       <c r="A14" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="38">
-        <v>192</v>
-      </c>
-      <c r="C14" s="38">
-        <v>186</v>
-      </c>
-      <c r="D14" s="39">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39" t="e">
         <f t="shared" si="0"/>
-        <v>0.96875</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E14" s="40">
         <v>0</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="39" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" s="39" t="e">
         <f t="shared" si="2"/>
-        <v>0.96875</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H14" s="38">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="I14" s="39">
+        <v>0</v>
+      </c>
+      <c r="I14" s="39" t="e">
         <f t="shared" si="4"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="J14" s="41">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="41" t="e">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K14" s="18"/>
     </row>
@@ -5223,38 +5202,34 @@
       <c r="A15" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="38">
-        <v>175</v>
-      </c>
-      <c r="C15" s="38">
-        <v>169</v>
-      </c>
-      <c r="D15" s="39">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39" t="e">
         <f t="shared" si="0"/>
-        <v>0.96571428571428575</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E15" s="40">
         <v>0</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="39" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="39" t="e">
         <f t="shared" si="2"/>
-        <v>0.96571428571428575</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H15" s="38">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="I15" s="39">
+        <v>0</v>
+      </c>
+      <c r="I15" s="39" t="e">
         <f t="shared" si="4"/>
-        <v>3.428571428571428E-2</v>
-      </c>
-      <c r="J15" s="41">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="41" t="e">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K15" s="18"/>
     </row>
@@ -5262,38 +5237,34 @@
       <c r="A16" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38">
-        <v>225</v>
-      </c>
-      <c r="C16" s="38">
-        <v>221</v>
-      </c>
-      <c r="D16" s="39">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39" t="e">
         <f t="shared" si="0"/>
-        <v>0.98222222222222233</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E16" s="40">
         <v>0</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="39" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="39" t="e">
         <f t="shared" si="2"/>
-        <v>0.98222222222222233</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H16" s="38">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="I16" s="39">
+        <v>0</v>
+      </c>
+      <c r="I16" s="39" t="e">
         <f t="shared" si="4"/>
-        <v>1.7777777777777778E-2</v>
-      </c>
-      <c r="J16" s="41">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="41" t="e">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K16" s="18"/>
     </row>
@@ -5301,38 +5272,34 @@
       <c r="A17" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="38">
-        <v>231</v>
-      </c>
-      <c r="C17" s="38">
-        <v>228</v>
-      </c>
-      <c r="D17" s="39">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39" t="e">
         <f t="shared" si="0"/>
-        <v>0.98701298701298701</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E17" s="40">
         <v>0</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="39" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" s="39" t="e">
         <f t="shared" si="2"/>
-        <v>0.98701298701298701</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H17" s="38">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="I17" s="39">
+        <v>0</v>
+      </c>
+      <c r="I17" s="39" t="e">
         <f t="shared" si="4"/>
-        <v>1.2987012987012986E-2</v>
-      </c>
-      <c r="J17" s="41">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="41" t="e">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K17" s="18"/>
     </row>
@@ -5340,37 +5307,33 @@
       <c r="A18" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="38">
-        <v>134</v>
-      </c>
-      <c r="C18" s="38">
-        <v>134</v>
-      </c>
-      <c r="D18" s="39">
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E18" s="40">
         <v>0</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="39" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" s="39" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H18" s="38">
         <v>0</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="39" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="41">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="41" t="e">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K18" s="18"/>
       <c r="L18" s="24"/>
@@ -5420,15 +5383,15 @@
       </c>
       <c r="B20" s="43">
         <f>SUM(B8:B19)</f>
-        <v>2025</v>
+        <v>250</v>
       </c>
       <c r="C20" s="43">
         <f>SUM(C8:C19)</f>
-        <v>1983</v>
+        <v>249</v>
       </c>
       <c r="D20" s="44">
         <f>C20/B20</f>
-        <v>0.97925925925925927</v>
+        <v>0.996</v>
       </c>
       <c r="E20" s="45">
         <f>SUM(E8:E19)</f>
@@ -5440,15 +5403,15 @@
       </c>
       <c r="G20" s="44">
         <f t="shared" si="2"/>
-        <v>0.97925925925925927</v>
+        <v>0.996</v>
       </c>
       <c r="H20" s="43">
         <f>SUM(H8:H19)</f>
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="I20" s="44">
         <f>H20/B20</f>
-        <v>2.074074074074074E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J20" s="46">
         <f>G20+I20</f>
@@ -5503,15 +5466,15 @@
         <v>15</v>
       </c>
       <c r="B24" s="48">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="C24" s="39">
         <f t="shared" ref="C24:C35" si="6">G8</f>
-        <v>0.98952879581151831</v>
+        <v>0.99333333333333329</v>
       </c>
       <c r="D24" s="39">
         <f t="shared" ref="D24:D35" si="7">I8</f>
-        <v>1.0471204188481676E-2</v>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="E24" s="49">
         <v>0.9</v>
@@ -5524,15 +5487,15 @@
         <v>16</v>
       </c>
       <c r="B25" s="48">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="C25" s="39">
         <f t="shared" si="6"/>
-        <v>0.95238095238095244</v>
+        <v>1</v>
       </c>
       <c r="D25" s="39">
         <f t="shared" si="7"/>
-        <v>4.7619047619047616E-2</v>
+        <v>0</v>
       </c>
       <c r="E25" s="49">
         <v>0.9</v>
@@ -5544,15 +5507,15 @@
         <v>17</v>
       </c>
       <c r="B26" s="48">
-        <v>149</v>
-      </c>
-      <c r="C26" s="39">
+        <v>0</v>
+      </c>
+      <c r="C26" s="39" t="e">
         <f t="shared" si="6"/>
-        <v>0.97315436241610742</v>
-      </c>
-      <c r="D26" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="39" t="e">
         <f t="shared" si="7"/>
-        <v>2.684563758389262E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E26" s="49">
         <v>0.9</v>
@@ -5564,15 +5527,15 @@
         <v>18</v>
       </c>
       <c r="B27" s="48">
-        <v>149</v>
-      </c>
-      <c r="C27" s="39">
+        <v>0</v>
+      </c>
+      <c r="C27" s="39" t="e">
         <f t="shared" si="6"/>
-        <v>0.97315436241610742</v>
-      </c>
-      <c r="D27" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="39" t="e">
         <f t="shared" si="7"/>
-        <v>2.684563758389262E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E27" s="49">
         <v>0.9</v>
@@ -5584,15 +5547,15 @@
         <v>19</v>
       </c>
       <c r="B28" s="48">
-        <v>265</v>
-      </c>
-      <c r="C28" s="39">
+        <v>0</v>
+      </c>
+      <c r="C28" s="39" t="e">
         <f t="shared" si="6"/>
-        <v>0.97735849056603774</v>
-      </c>
-      <c r="D28" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="39" t="e">
         <f t="shared" si="7"/>
-        <v>2.2641509433962263E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E28" s="49">
         <v>0.9</v>
@@ -5605,15 +5568,15 @@
         <v>20</v>
       </c>
       <c r="B29" s="48">
-        <v>167</v>
-      </c>
-      <c r="C29" s="39">
+        <v>0</v>
+      </c>
+      <c r="C29" s="39" t="e">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D29" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="39" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E29" s="49">
         <v>0.9</v>
@@ -5625,15 +5588,15 @@
         <v>21</v>
       </c>
       <c r="B30" s="48">
-        <v>192</v>
-      </c>
-      <c r="C30" s="39">
+        <v>0</v>
+      </c>
+      <c r="C30" s="39" t="e">
         <f t="shared" si="6"/>
-        <v>0.96875</v>
-      </c>
-      <c r="D30" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D30" s="39" t="e">
         <f t="shared" si="7"/>
-        <v>3.125E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E30" s="49">
         <v>0.9</v>
@@ -5645,15 +5608,15 @@
         <v>22</v>
       </c>
       <c r="B31" s="48">
-        <v>175</v>
-      </c>
-      <c r="C31" s="39">
+        <v>0</v>
+      </c>
+      <c r="C31" s="39" t="e">
         <f t="shared" si="6"/>
-        <v>0.96571428571428575</v>
-      </c>
-      <c r="D31" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="39" t="e">
         <f t="shared" si="7"/>
-        <v>3.428571428571428E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E31" s="49">
         <v>0.9</v>
@@ -5665,15 +5628,15 @@
         <v>23</v>
       </c>
       <c r="B32" s="48">
-        <v>225</v>
-      </c>
-      <c r="C32" s="39">
+        <v>0</v>
+      </c>
+      <c r="C32" s="39" t="e">
         <f t="shared" si="6"/>
-        <v>0.98222222222222233</v>
-      </c>
-      <c r="D32" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" s="39" t="e">
         <f t="shared" si="7"/>
-        <v>1.7777777777777778E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E32" s="49">
         <v>0.9</v>
@@ -5685,15 +5648,15 @@
         <v>24</v>
       </c>
       <c r="B33" s="40">
-        <v>231</v>
-      </c>
-      <c r="C33" s="39">
+        <v>0</v>
+      </c>
+      <c r="C33" s="39" t="e">
         <f t="shared" si="6"/>
-        <v>0.98701298701298701</v>
-      </c>
-      <c r="D33" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="39" t="e">
         <f t="shared" si="7"/>
-        <v>1.2987012987012986E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E33" s="49">
         <v>0.9</v>
@@ -5705,15 +5668,15 @@
         <v>25</v>
       </c>
       <c r="B34" s="40">
-        <v>134</v>
-      </c>
-      <c r="C34" s="39">
+        <v>0</v>
+      </c>
+      <c r="C34" s="39" t="e">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D34" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D34" s="39" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E34" s="49">
         <v>0.9</v>
@@ -5746,7 +5709,7 @@
       </c>
       <c r="B36" s="51">
         <f>SUM(B24:B35)</f>
-        <v>2025</v>
+        <v>250</v>
       </c>
       <c r="C36" s="52" t="e">
         <f>SUM(C24:C35)</f>
@@ -5821,7 +5784,7 @@
       </c>
       <c r="B41" s="55">
         <f t="shared" ref="B41:B51" si="9">B9</f>
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="C41" s="55">
         <v>0</v>
@@ -5845,18 +5808,18 @@
       </c>
       <c r="B42" s="55">
         <f t="shared" si="9"/>
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="C42" s="55">
         <v>0</v>
       </c>
-      <c r="D42" s="56">
+      <c r="D42" s="56" t="e">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E42" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E42" s="56" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F42" s="57">
         <v>0.9</v>
@@ -5868,18 +5831,18 @@
       </c>
       <c r="B43" s="55">
         <f t="shared" si="9"/>
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="C43" s="55">
         <v>0</v>
       </c>
-      <c r="D43" s="56">
+      <c r="D43" s="56" t="e">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E43" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43" s="56" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F43" s="57">
         <v>0.9</v>
@@ -5894,18 +5857,18 @@
       </c>
       <c r="B44" s="55">
         <f t="shared" si="9"/>
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="C44" s="55">
         <v>0</v>
       </c>
-      <c r="D44" s="56">
+      <c r="D44" s="56" t="e">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E44" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E44" s="56" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F44" s="57">
         <v>0.9</v>
@@ -5917,18 +5880,18 @@
       </c>
       <c r="B45" s="55">
         <f t="shared" si="9"/>
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="C45" s="55">
         <v>0</v>
       </c>
-      <c r="D45" s="56">
+      <c r="D45" s="56" t="e">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E45" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E45" s="56" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F45" s="57">
         <v>0.9</v>
@@ -5941,18 +5904,18 @@
       </c>
       <c r="B46" s="55">
         <f t="shared" si="9"/>
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="C46" s="55">
         <v>0</v>
       </c>
-      <c r="D46" s="56">
+      <c r="D46" s="56" t="e">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E46" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E46" s="56" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F46" s="57">
         <v>0.9</v>
@@ -5965,18 +5928,18 @@
       </c>
       <c r="B47" s="55">
         <f>B15</f>
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="C47" s="55">
         <v>0</v>
       </c>
-      <c r="D47" s="56">
+      <c r="D47" s="56" t="e">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E47" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E47" s="56" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F47" s="57">
         <v>0.9</v>
@@ -5989,18 +5952,18 @@
       </c>
       <c r="B48" s="55">
         <f t="shared" si="9"/>
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="C48" s="55">
         <v>0</v>
       </c>
-      <c r="D48" s="56">
+      <c r="D48" s="56" t="e">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E48" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E48" s="56" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F48" s="57">
         <v>0.9</v>
@@ -6012,18 +5975,18 @@
         <v>24</v>
       </c>
       <c r="B49" s="55">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="C49" s="55">
         <v>0</v>
       </c>
-      <c r="D49" s="56">
+      <c r="D49" s="56" t="e">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E49" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49" s="56" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F49" s="57">
         <v>0.9</v>
@@ -6036,18 +5999,18 @@
       </c>
       <c r="B50" s="55">
         <f t="shared" si="9"/>
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="C50" s="55">
         <v>0</v>
       </c>
-      <c r="D50" s="56">
+      <c r="D50" s="56" t="e">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E50" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E50" s="56" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F50" s="57">
         <v>0.9</v>
@@ -6085,7 +6048,7 @@
       </c>
       <c r="B52" s="51">
         <f>SUM(B40:B51)</f>
-        <v>2025</v>
+        <v>291</v>
       </c>
       <c r="C52" s="58">
         <f>SUM(C40:C51)</f>
